--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\everyday-use\Blog\docs\Cursor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\everyday-use-wk\cursor-usage\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5000D10-5B2A-4F38-8840-217B7269E8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B22E1C-C685-44E3-951A-B6F66948F6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cursor Usageの記録" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="27">
   <si>
     <t>番号</t>
   </si>
@@ -700,11 +700,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L242"/>
+  <dimension ref="A1:L308"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A243" sqref="A243"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -764,7 +764,7 @@
     </row>
     <row r="2" spans="1:12" ht="14.5">
       <c r="A2" s="6">
-        <f t="shared" ref="A2:A242" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A256" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="7">
@@ -3445,7 +3445,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7">
-        <f t="shared" ref="B83:B242" si="6">B82+1</f>
+        <f t="shared" ref="B83:C275" si="6">B82+1</f>
         <v>45844</v>
       </c>
       <c r="C83" s="6">
@@ -4023,11 +4023,11 @@
         <v>45862</v>
       </c>
       <c r="C101" s="6">
-        <f t="shared" ref="C101:C242" si="9">C100+1</f>
+        <f t="shared" ref="C101:C246" si="9">C100+1</f>
         <v>8</v>
       </c>
       <c r="D101" s="12">
-        <f t="shared" ref="D101:D242" si="10">D100-1</f>
+        <f t="shared" ref="D101:D287" si="10">D100-1</f>
         <v>23</v>
       </c>
       <c r="E101" s="17">
@@ -8006,6 +8006,1783 @@
         <v>0</v>
       </c>
       <c r="G242" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="14.5">
+      <c r="A243" s="6">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="B243" s="7">
+        <f t="shared" si="6"/>
+        <v>46004</v>
+      </c>
+      <c r="C243" s="6">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="D243" s="12">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E243" s="17">
+        <v>0</v>
+      </c>
+      <c r="F243" s="17">
+        <v>0</v>
+      </c>
+      <c r="G243" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="14.5">
+      <c r="A244" s="6">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="B244" s="7">
+        <f t="shared" si="6"/>
+        <v>46005</v>
+      </c>
+      <c r="C244" s="6">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="D244" s="12">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E244" s="17">
+        <v>19</v>
+      </c>
+      <c r="F244" s="17">
+        <v>0</v>
+      </c>
+      <c r="G244" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="14.5">
+      <c r="A245" s="6">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="B245" s="7">
+        <f t="shared" si="6"/>
+        <v>46006</v>
+      </c>
+      <c r="C245" s="6">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="D245" s="12">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E245" s="17">
+        <v>714</v>
+      </c>
+      <c r="F245" s="17">
+        <v>714</v>
+      </c>
+      <c r="G245" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="14.5">
+      <c r="A246" s="6">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="B246" s="7">
+        <f t="shared" si="6"/>
+        <v>46007</v>
+      </c>
+      <c r="C246" s="6">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="D246" s="12">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E246" s="17">
+        <v>0</v>
+      </c>
+      <c r="F246" s="17">
+        <v>0</v>
+      </c>
+      <c r="G246" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="14.5">
+      <c r="A247" s="6">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="B247" s="7">
+        <f t="shared" si="6"/>
+        <v>46008</v>
+      </c>
+      <c r="C247" s="6">
+        <v>1</v>
+      </c>
+      <c r="D247" s="12">
+        <v>30</v>
+      </c>
+      <c r="E247" s="17">
+        <v>0</v>
+      </c>
+      <c r="F247" s="17">
+        <v>0</v>
+      </c>
+      <c r="G247" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="14.5">
+      <c r="A248" s="6">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="B248" s="7">
+        <f t="shared" si="6"/>
+        <v>46009</v>
+      </c>
+      <c r="C248" s="6">
+        <f>C247+1</f>
+        <v>2</v>
+      </c>
+      <c r="D248" s="12">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="E248" s="17">
+        <v>0</v>
+      </c>
+      <c r="F248" s="17">
+        <v>0</v>
+      </c>
+      <c r="G248" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="14.5">
+      <c r="A249" s="6">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="B249" s="7">
+        <f t="shared" si="6"/>
+        <v>46010</v>
+      </c>
+      <c r="C249" s="6">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D249" s="12">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="E249" s="17">
+        <v>0</v>
+      </c>
+      <c r="F249" s="17">
+        <v>0</v>
+      </c>
+      <c r="G249" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="14.5">
+      <c r="A250" s="6">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="B250" s="7">
+        <f t="shared" si="6"/>
+        <v>46011</v>
+      </c>
+      <c r="C250" s="6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D250" s="12">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="E250" s="17">
+        <v>0</v>
+      </c>
+      <c r="F250" s="17">
+        <v>0</v>
+      </c>
+      <c r="G250" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="14.5">
+      <c r="A251" s="6">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="B251" s="7">
+        <f t="shared" si="6"/>
+        <v>46012</v>
+      </c>
+      <c r="C251" s="6">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D251" s="12">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="E251" s="17">
+        <v>0</v>
+      </c>
+      <c r="F251" s="17">
+        <v>0</v>
+      </c>
+      <c r="G251" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="14.5">
+      <c r="A252" s="6">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="B252" s="7">
+        <f t="shared" si="6"/>
+        <v>46013</v>
+      </c>
+      <c r="C252" s="6">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D252" s="12">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="E252" s="17">
+        <v>0</v>
+      </c>
+      <c r="F252" s="17">
+        <v>0</v>
+      </c>
+      <c r="G252" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="14.5">
+      <c r="A253" s="6">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="B253" s="7">
+        <f t="shared" si="6"/>
+        <v>46014</v>
+      </c>
+      <c r="C253" s="6">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D253" s="12">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="E253" s="17">
+        <v>1322</v>
+      </c>
+      <c r="F253" s="17">
+        <v>1322</v>
+      </c>
+      <c r="G253" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="14.5">
+      <c r="A254" s="6">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="B254" s="7">
+        <f t="shared" si="6"/>
+        <v>46015</v>
+      </c>
+      <c r="C254" s="6">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D254" s="12">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="E254" s="17">
+        <v>830</v>
+      </c>
+      <c r="F254" s="17">
+        <v>685</v>
+      </c>
+      <c r="G254" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="14.5">
+      <c r="A255" s="6">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="B255" s="7">
+        <f t="shared" si="6"/>
+        <v>46016</v>
+      </c>
+      <c r="C255" s="6">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D255" s="12">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="E255" s="17">
+        <v>51</v>
+      </c>
+      <c r="F255" s="17">
+        <v>51</v>
+      </c>
+      <c r="G255" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="14.5">
+      <c r="A256" s="6">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="B256" s="7">
+        <f t="shared" si="6"/>
+        <v>46017</v>
+      </c>
+      <c r="C256" s="6">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D256" s="12">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="E256" s="17">
+        <v>198</v>
+      </c>
+      <c r="F256" s="17">
+        <v>198</v>
+      </c>
+      <c r="G256" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="14.5">
+      <c r="A257" s="6">
+        <f t="shared" ref="A257:A308" si="11">ROW()-1</f>
+        <v>256</v>
+      </c>
+      <c r="B257" s="7">
+        <f t="shared" si="6"/>
+        <v>46018</v>
+      </c>
+      <c r="C257" s="6">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D257" s="12">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="E257" s="17">
+        <v>613</v>
+      </c>
+      <c r="F257" s="17">
+        <v>588</v>
+      </c>
+      <c r="G257" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="14.5">
+      <c r="A258" s="6">
+        <f t="shared" si="11"/>
+        <v>257</v>
+      </c>
+      <c r="B258" s="7">
+        <f t="shared" si="6"/>
+        <v>46019</v>
+      </c>
+      <c r="C258" s="6">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D258" s="12">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="E258" s="17">
+        <v>5026</v>
+      </c>
+      <c r="F258" s="17">
+        <v>5026</v>
+      </c>
+      <c r="G258" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="14.5">
+      <c r="A259" s="6">
+        <f t="shared" si="11"/>
+        <v>258</v>
+      </c>
+      <c r="B259" s="7">
+        <f t="shared" si="6"/>
+        <v>46020</v>
+      </c>
+      <c r="C259" s="6">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="D259" s="12">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="E259" s="17">
+        <v>107</v>
+      </c>
+      <c r="F259" s="17">
+        <v>107</v>
+      </c>
+      <c r="G259" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="14.5">
+      <c r="A260" s="6">
+        <f t="shared" si="11"/>
+        <v>259</v>
+      </c>
+      <c r="B260" s="7">
+        <f t="shared" si="6"/>
+        <v>46021</v>
+      </c>
+      <c r="C260" s="6">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="D260" s="12">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="E260" s="17">
+        <v>104</v>
+      </c>
+      <c r="F260" s="17">
+        <v>100</v>
+      </c>
+      <c r="G260" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="14.5">
+      <c r="A261" s="6">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="B261" s="7">
+        <f t="shared" si="6"/>
+        <v>46022</v>
+      </c>
+      <c r="C261" s="6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="D261" s="12">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="E261" s="17">
+        <v>153</v>
+      </c>
+      <c r="F261" s="17">
+        <v>153</v>
+      </c>
+      <c r="G261" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="14.5">
+      <c r="A262" s="6">
+        <f t="shared" si="11"/>
+        <v>261</v>
+      </c>
+      <c r="B262" s="7">
+        <f t="shared" si="6"/>
+        <v>46023</v>
+      </c>
+      <c r="C262" s="6">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D262" s="12">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="E262" s="17">
+        <v>25</v>
+      </c>
+      <c r="F262" s="17">
+        <v>25</v>
+      </c>
+      <c r="G262" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="14.5">
+      <c r="A263" s="6">
+        <f t="shared" si="11"/>
+        <v>262</v>
+      </c>
+      <c r="B263" s="7">
+        <f t="shared" si="6"/>
+        <v>46024</v>
+      </c>
+      <c r="C263" s="6">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="D263" s="12">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="14.5">
+      <c r="A264" s="6">
+        <f t="shared" si="11"/>
+        <v>263</v>
+      </c>
+      <c r="B264" s="7">
+        <f t="shared" si="6"/>
+        <v>46025</v>
+      </c>
+      <c r="C264" s="6">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="D264" s="12">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="E264" s="17">
+        <v>289</v>
+      </c>
+      <c r="F264" s="17">
+        <v>289</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="14.5">
+      <c r="A265" s="6">
+        <f t="shared" si="11"/>
+        <v>264</v>
+      </c>
+      <c r="B265" s="7">
+        <f t="shared" si="6"/>
+        <v>46026</v>
+      </c>
+      <c r="C265" s="6">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="D265" s="12">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="E265" s="17">
+        <v>343</v>
+      </c>
+      <c r="F265" s="17">
+        <v>343</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="14.5">
+      <c r="A266" s="6">
+        <f t="shared" si="11"/>
+        <v>265</v>
+      </c>
+      <c r="B266" s="7">
+        <f t="shared" si="6"/>
+        <v>46027</v>
+      </c>
+      <c r="C266" s="6">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="D266" s="12">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="E266" s="17">
+        <v>451</v>
+      </c>
+      <c r="F266" s="17">
+        <v>451</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="14.5">
+      <c r="A267" s="6">
+        <f t="shared" si="11"/>
+        <v>266</v>
+      </c>
+      <c r="B267" s="7">
+        <f t="shared" si="6"/>
+        <v>46028</v>
+      </c>
+      <c r="C267" s="6">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="D267" s="12">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="E267" s="17">
+        <v>805</v>
+      </c>
+      <c r="F267" s="17">
+        <v>569</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="14.5">
+      <c r="A268" s="6">
+        <f t="shared" si="11"/>
+        <v>267</v>
+      </c>
+      <c r="B268" s="7">
+        <f t="shared" si="6"/>
+        <v>46029</v>
+      </c>
+      <c r="C268" s="6">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="D268" s="12">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="E268" s="17">
+        <v>1441</v>
+      </c>
+      <c r="F268" s="17">
+        <v>1441</v>
+      </c>
+      <c r="G268" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="14.5">
+      <c r="A269" s="6">
+        <f t="shared" si="11"/>
+        <v>268</v>
+      </c>
+      <c r="B269" s="7">
+        <f t="shared" si="6"/>
+        <v>46030</v>
+      </c>
+      <c r="C269" s="6">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="D269" s="12">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E269" s="17">
+        <v>472</v>
+      </c>
+      <c r="F269" s="17">
+        <v>472</v>
+      </c>
+      <c r="G269" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="14.5">
+      <c r="A270" s="6">
+        <f t="shared" si="11"/>
+        <v>269</v>
+      </c>
+      <c r="B270" s="7">
+        <f t="shared" si="6"/>
+        <v>46031</v>
+      </c>
+      <c r="C270" s="6">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="D270" s="12">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E270" s="17">
+        <v>610</v>
+      </c>
+      <c r="F270" s="17">
+        <v>528</v>
+      </c>
+      <c r="G270" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="14.5">
+      <c r="A271" s="6">
+        <f t="shared" si="11"/>
+        <v>270</v>
+      </c>
+      <c r="B271" s="7">
+        <f t="shared" si="6"/>
+        <v>46032</v>
+      </c>
+      <c r="C271" s="6">
+        <f t="shared" ref="C271" si="12">C270+1</f>
+        <v>25</v>
+      </c>
+      <c r="D271" s="12">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="E271" s="17">
+        <v>58</v>
+      </c>
+      <c r="F271" s="17">
+        <v>56</v>
+      </c>
+      <c r="G271" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="14.5">
+      <c r="A272" s="6">
+        <f t="shared" si="11"/>
+        <v>271</v>
+      </c>
+      <c r="B272" s="7">
+        <f t="shared" si="6"/>
+        <v>46033</v>
+      </c>
+      <c r="C272" s="6">
+        <f t="shared" ref="C272" si="13">C271+1</f>
+        <v>26</v>
+      </c>
+      <c r="D272" s="12">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E272" s="17">
+        <v>521</v>
+      </c>
+      <c r="F272" s="17">
+        <v>521</v>
+      </c>
+      <c r="G272" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="14.5">
+      <c r="A273" s="6">
+        <f t="shared" si="11"/>
+        <v>272</v>
+      </c>
+      <c r="B273" s="7">
+        <f t="shared" si="6"/>
+        <v>46034</v>
+      </c>
+      <c r="C273" s="6">
+        <f t="shared" ref="C273" si="14">C272+1</f>
+        <v>27</v>
+      </c>
+      <c r="D273" s="12">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E273" s="17">
+        <v>804</v>
+      </c>
+      <c r="F273" s="17">
+        <v>804</v>
+      </c>
+      <c r="G273" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="14.5">
+      <c r="A274" s="6">
+        <f t="shared" si="11"/>
+        <v>273</v>
+      </c>
+      <c r="B274" s="7">
+        <f t="shared" si="6"/>
+        <v>46035</v>
+      </c>
+      <c r="C274" s="6">
+        <f t="shared" ref="C274" si="15">C273+1</f>
+        <v>28</v>
+      </c>
+      <c r="D274" s="12">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E274" s="17">
+        <v>585</v>
+      </c>
+      <c r="F274" s="17">
+        <v>519</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="14.5">
+      <c r="A275" s="6">
+        <f t="shared" si="11"/>
+        <v>274</v>
+      </c>
+      <c r="B275" s="7">
+        <f t="shared" si="6"/>
+        <v>46036</v>
+      </c>
+      <c r="C275" s="6">
+        <f t="shared" ref="C275" si="16">C274+1</f>
+        <v>29</v>
+      </c>
+      <c r="D275" s="12">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="14.5">
+      <c r="A276" s="6">
+        <f t="shared" si="11"/>
+        <v>275</v>
+      </c>
+      <c r="B276" s="7">
+        <f t="shared" ref="B276" si="17">B275+1</f>
+        <v>46037</v>
+      </c>
+      <c r="C276" s="6">
+        <f t="shared" ref="C276" si="18">C275+1</f>
+        <v>30</v>
+      </c>
+      <c r="D276" s="12">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>0</v>
+      </c>
+      <c r="G276" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="14.5">
+      <c r="A277" s="6">
+        <f t="shared" si="11"/>
+        <v>276</v>
+      </c>
+      <c r="B277" s="7">
+        <f t="shared" ref="B277:B287" si="19">B276+1</f>
+        <v>46038</v>
+      </c>
+      <c r="C277" s="6">
+        <f t="shared" ref="C277" si="20">C276+1</f>
+        <v>31</v>
+      </c>
+      <c r="D277" s="12">
+        <v>0</v>
+      </c>
+      <c r="E277" s="17">
+        <v>2467</v>
+      </c>
+      <c r="F277" s="17">
+        <v>2467</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="14.5">
+      <c r="A278" s="6">
+        <f t="shared" si="11"/>
+        <v>277</v>
+      </c>
+      <c r="B278" s="7">
+        <f t="shared" si="19"/>
+        <v>46039</v>
+      </c>
+      <c r="C278" s="6">
+        <v>1</v>
+      </c>
+      <c r="D278" s="12">
+        <v>30</v>
+      </c>
+      <c r="E278" s="17">
+        <v>223</v>
+      </c>
+      <c r="F278" s="17">
+        <v>223</v>
+      </c>
+      <c r="G278" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="14.5">
+      <c r="A279" s="6">
+        <f t="shared" si="11"/>
+        <v>278</v>
+      </c>
+      <c r="B279" s="7">
+        <f t="shared" si="19"/>
+        <v>46040</v>
+      </c>
+      <c r="C279" s="6">
+        <f t="shared" ref="C279:C284" si="21">C278+1</f>
+        <v>2</v>
+      </c>
+      <c r="D279" s="12">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="E279" s="17">
+        <v>0</v>
+      </c>
+      <c r="F279" s="17">
+        <v>0</v>
+      </c>
+      <c r="G279" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="14.5">
+      <c r="A280" s="6">
+        <f t="shared" si="11"/>
+        <v>279</v>
+      </c>
+      <c r="B280" s="7">
+        <f t="shared" si="19"/>
+        <v>46041</v>
+      </c>
+      <c r="C280" s="6">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="D280" s="12">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="E280" s="17">
+        <v>0</v>
+      </c>
+      <c r="F280" s="17">
+        <v>0</v>
+      </c>
+      <c r="G280" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="14.5">
+      <c r="A281" s="6">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+      <c r="B281" s="7">
+        <f t="shared" si="19"/>
+        <v>46042</v>
+      </c>
+      <c r="C281" s="6">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="D281" s="12">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="E281" s="17">
+        <v>0</v>
+      </c>
+      <c r="F281" s="17">
+        <v>0</v>
+      </c>
+      <c r="G281" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="14.5">
+      <c r="A282" s="6">
+        <f t="shared" si="11"/>
+        <v>281</v>
+      </c>
+      <c r="B282" s="7">
+        <f t="shared" si="19"/>
+        <v>46043</v>
+      </c>
+      <c r="C282" s="6">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="D282" s="12">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="E282" s="17">
+        <v>0</v>
+      </c>
+      <c r="F282" s="17">
+        <v>0</v>
+      </c>
+      <c r="G282" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="14.5">
+      <c r="A283" s="6">
+        <f t="shared" si="11"/>
+        <v>282</v>
+      </c>
+      <c r="B283" s="7">
+        <f t="shared" si="19"/>
+        <v>46044</v>
+      </c>
+      <c r="C283" s="6">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="D283" s="12">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="E283" s="17">
+        <v>0</v>
+      </c>
+      <c r="F283" s="17">
+        <v>0</v>
+      </c>
+      <c r="G283" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="14.5">
+      <c r="A284" s="6">
+        <f t="shared" si="11"/>
+        <v>283</v>
+      </c>
+      <c r="B284" s="7">
+        <f t="shared" si="19"/>
+        <v>46045</v>
+      </c>
+      <c r="C284" s="6">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="D284" s="12">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="E284" s="17">
+        <v>0</v>
+      </c>
+      <c r="F284" s="17">
+        <v>0</v>
+      </c>
+      <c r="G284" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="14.5">
+      <c r="A285" s="6">
+        <f t="shared" si="11"/>
+        <v>284</v>
+      </c>
+      <c r="B285" s="7">
+        <f t="shared" si="19"/>
+        <v>46046</v>
+      </c>
+      <c r="C285" s="6">
+        <f t="shared" ref="C285:C287" si="22">C284+1</f>
+        <v>8</v>
+      </c>
+      <c r="D285" s="12">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="E285" s="17">
+        <v>440</v>
+      </c>
+      <c r="F285" s="17">
+        <v>425</v>
+      </c>
+      <c r="G285" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="14.5">
+      <c r="A286" s="6">
+        <f t="shared" si="11"/>
+        <v>285</v>
+      </c>
+      <c r="B286" s="7">
+        <f t="shared" si="19"/>
+        <v>46047</v>
+      </c>
+      <c r="C286" s="6">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="D286" s="12">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="E286" s="17">
+        <v>5</v>
+      </c>
+      <c r="F286" s="17">
+        <v>2</v>
+      </c>
+      <c r="G286" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="14.5">
+      <c r="A287" s="6">
+        <f t="shared" si="11"/>
+        <v>286</v>
+      </c>
+      <c r="B287" s="7">
+        <f t="shared" si="19"/>
+        <v>46048</v>
+      </c>
+      <c r="C287" s="6">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="D287" s="12">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="E287" s="17">
+        <v>18</v>
+      </c>
+      <c r="F287" s="17">
+        <v>18</v>
+      </c>
+      <c r="G287" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="14.5">
+      <c r="A288" s="6">
+        <f t="shared" si="11"/>
+        <v>287</v>
+      </c>
+      <c r="B288" s="7">
+        <f t="shared" ref="B288:C290" si="23">B287+1</f>
+        <v>46049</v>
+      </c>
+      <c r="C288" s="6">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="D288" s="12">
+        <f t="shared" ref="D288:D293" si="24">D287-1</f>
+        <v>20</v>
+      </c>
+      <c r="E288" s="17">
+        <v>148</v>
+      </c>
+      <c r="F288" s="17">
+        <v>148</v>
+      </c>
+      <c r="G288" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="14.5">
+      <c r="A289" s="6">
+        <f t="shared" si="11"/>
+        <v>288</v>
+      </c>
+      <c r="B289" s="7">
+        <f t="shared" si="23"/>
+        <v>46050</v>
+      </c>
+      <c r="C289" s="6">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="D289" s="12">
+        <f t="shared" si="24"/>
+        <v>19</v>
+      </c>
+      <c r="E289" s="17">
+        <v>0</v>
+      </c>
+      <c r="F289" s="17">
+        <v>0</v>
+      </c>
+      <c r="G289" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="14.5">
+      <c r="A290" s="6">
+        <f t="shared" si="11"/>
+        <v>289</v>
+      </c>
+      <c r="B290" s="7">
+        <f t="shared" si="23"/>
+        <v>46051</v>
+      </c>
+      <c r="C290" s="6">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="D290" s="12">
+        <f t="shared" si="24"/>
+        <v>18</v>
+      </c>
+      <c r="E290" s="17">
+        <v>0</v>
+      </c>
+      <c r="F290" s="17">
+        <v>0</v>
+      </c>
+      <c r="G290" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="14.5">
+      <c r="A291" s="6">
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="B291" s="7">
+        <f t="shared" ref="B291:B308" si="25">B290+1</f>
+        <v>46052</v>
+      </c>
+      <c r="C291" s="6">
+        <f t="shared" ref="C291:C308" si="26">C290+1</f>
+        <v>14</v>
+      </c>
+      <c r="D291" s="12">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="E291" s="17">
+        <v>0</v>
+      </c>
+      <c r="F291" s="17">
+        <v>0</v>
+      </c>
+      <c r="G291" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="14.5">
+      <c r="A292" s="6">
+        <f t="shared" si="11"/>
+        <v>291</v>
+      </c>
+      <c r="B292" s="7">
+        <f t="shared" si="25"/>
+        <v>46053</v>
+      </c>
+      <c r="C292" s="6">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="D292" s="12">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="E292" s="17">
+        <v>8</v>
+      </c>
+      <c r="F292" s="17">
+        <v>8</v>
+      </c>
+      <c r="G292" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="14.5">
+      <c r="A293" s="6">
+        <f t="shared" si="11"/>
+        <v>292</v>
+      </c>
+      <c r="B293" s="7">
+        <f t="shared" si="25"/>
+        <v>46054</v>
+      </c>
+      <c r="C293" s="6">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="D293" s="12">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+      <c r="E293" s="17">
+        <v>683</v>
+      </c>
+      <c r="F293" s="17">
+        <v>683</v>
+      </c>
+      <c r="G293" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="14.5">
+      <c r="A294" s="6">
+        <f t="shared" si="11"/>
+        <v>293</v>
+      </c>
+      <c r="B294" s="7">
+        <f t="shared" si="25"/>
+        <v>46055</v>
+      </c>
+      <c r="C294" s="6">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="D294" s="12">
+        <f t="shared" ref="D294:D308" si="27">D293-1</f>
+        <v>14</v>
+      </c>
+      <c r="E294" s="17">
+        <v>51</v>
+      </c>
+      <c r="F294" s="17">
+        <v>51</v>
+      </c>
+      <c r="G294" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="14.5">
+      <c r="A295" s="6">
+        <f t="shared" si="11"/>
+        <v>294</v>
+      </c>
+      <c r="B295" s="7">
+        <f t="shared" si="25"/>
+        <v>46056</v>
+      </c>
+      <c r="C295" s="6">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="D295" s="12">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="E295" s="17">
+        <v>38</v>
+      </c>
+      <c r="F295" s="17">
+        <v>38</v>
+      </c>
+      <c r="G295" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="14.5">
+      <c r="A296" s="6">
+        <f t="shared" si="11"/>
+        <v>295</v>
+      </c>
+      <c r="B296" s="7">
+        <f t="shared" si="25"/>
+        <v>46057</v>
+      </c>
+      <c r="C296" s="6">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="D296" s="12">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="E296" s="17">
+        <v>0</v>
+      </c>
+      <c r="F296" s="17">
+        <v>0</v>
+      </c>
+      <c r="G296" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="14.5">
+      <c r="A297" s="6">
+        <f t="shared" si="11"/>
+        <v>296</v>
+      </c>
+      <c r="B297" s="7">
+        <f t="shared" si="25"/>
+        <v>46058</v>
+      </c>
+      <c r="C297" s="6">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="D297" s="12">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="E297" s="17">
+        <v>0</v>
+      </c>
+      <c r="F297" s="17">
+        <v>0</v>
+      </c>
+      <c r="G297" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="14.5">
+      <c r="A298" s="6">
+        <f t="shared" si="11"/>
+        <v>297</v>
+      </c>
+      <c r="B298" s="7">
+        <f t="shared" si="25"/>
+        <v>46059</v>
+      </c>
+      <c r="C298" s="6">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="D298" s="12">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="E298" s="17">
+        <v>80</v>
+      </c>
+      <c r="F298" s="17">
+        <v>80</v>
+      </c>
+      <c r="G298" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="14.5">
+      <c r="A299" s="6">
+        <f t="shared" si="11"/>
+        <v>298</v>
+      </c>
+      <c r="B299" s="7">
+        <f t="shared" si="25"/>
+        <v>46060</v>
+      </c>
+      <c r="C299" s="6">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="D299" s="12">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="E299" s="17">
+        <v>0</v>
+      </c>
+      <c r="F299" s="17">
+        <v>0</v>
+      </c>
+      <c r="G299" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="14.5">
+      <c r="A300" s="6">
+        <f t="shared" si="11"/>
+        <v>299</v>
+      </c>
+      <c r="B300" s="7">
+        <f t="shared" si="25"/>
+        <v>46061</v>
+      </c>
+      <c r="C300" s="6">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="D300" s="12">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="E300" s="17">
+        <v>89</v>
+      </c>
+      <c r="F300" s="17">
+        <v>87</v>
+      </c>
+      <c r="G300" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="14.5">
+      <c r="A301" s="6">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="B301" s="7">
+        <f t="shared" si="25"/>
+        <v>46062</v>
+      </c>
+      <c r="C301" s="6">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="D301" s="12">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="E301" s="17">
+        <v>0</v>
+      </c>
+      <c r="F301" s="17">
+        <v>0</v>
+      </c>
+      <c r="G301" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="14.5">
+      <c r="A302" s="6">
+        <f t="shared" si="11"/>
+        <v>301</v>
+      </c>
+      <c r="B302" s="7">
+        <f t="shared" si="25"/>
+        <v>46063</v>
+      </c>
+      <c r="C302" s="6">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="D302" s="12">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="E302" s="17">
+        <v>32</v>
+      </c>
+      <c r="F302" s="17">
+        <v>32</v>
+      </c>
+      <c r="G302" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="14.5">
+      <c r="A303" s="6">
+        <f t="shared" si="11"/>
+        <v>302</v>
+      </c>
+      <c r="B303" s="7">
+        <f t="shared" si="25"/>
+        <v>46064</v>
+      </c>
+      <c r="C303" s="6">
+        <f t="shared" si="26"/>
+        <v>26</v>
+      </c>
+      <c r="D303" s="12">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="E303" s="17">
+        <v>44</v>
+      </c>
+      <c r="F303" s="17">
+        <v>44</v>
+      </c>
+      <c r="G303" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="14.5">
+      <c r="A304" s="6">
+        <f t="shared" si="11"/>
+        <v>303</v>
+      </c>
+      <c r="B304" s="7">
+        <f t="shared" si="25"/>
+        <v>46065</v>
+      </c>
+      <c r="C304" s="6">
+        <f t="shared" si="26"/>
+        <v>27</v>
+      </c>
+      <c r="D304" s="12">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="E304" s="17">
+        <v>48</v>
+      </c>
+      <c r="F304" s="17">
+        <v>48</v>
+      </c>
+      <c r="G304" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="14.5">
+      <c r="A305" s="6">
+        <f t="shared" si="11"/>
+        <v>304</v>
+      </c>
+      <c r="B305" s="7">
+        <f t="shared" si="25"/>
+        <v>46066</v>
+      </c>
+      <c r="C305" s="6">
+        <f t="shared" si="26"/>
+        <v>28</v>
+      </c>
+      <c r="D305" s="12">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="E305" s="17">
+        <v>0</v>
+      </c>
+      <c r="F305" s="17">
+        <v>0</v>
+      </c>
+      <c r="G305" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="14.5">
+      <c r="A306" s="6">
+        <f t="shared" si="11"/>
+        <v>305</v>
+      </c>
+      <c r="B306" s="7">
+        <f t="shared" si="25"/>
+        <v>46067</v>
+      </c>
+      <c r="C306" s="6">
+        <f t="shared" si="26"/>
+        <v>29</v>
+      </c>
+      <c r="D306" s="12">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="E306" s="17">
+        <v>917</v>
+      </c>
+      <c r="F306" s="17">
+        <v>550</v>
+      </c>
+      <c r="G306" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="14.5">
+      <c r="A307" s="6">
+        <f t="shared" si="11"/>
+        <v>306</v>
+      </c>
+      <c r="B307" s="7">
+        <f t="shared" si="25"/>
+        <v>46068</v>
+      </c>
+      <c r="C307" s="6">
+        <f t="shared" si="26"/>
+        <v>30</v>
+      </c>
+      <c r="D307" s="12">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="E307" s="17">
+        <v>0</v>
+      </c>
+      <c r="F307" s="17">
+        <v>0</v>
+      </c>
+      <c r="G307" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="14.5">
+      <c r="A308" s="6">
+        <f t="shared" si="11"/>
+        <v>307</v>
+      </c>
+      <c r="B308" s="7">
+        <f t="shared" si="25"/>
+        <v>46069</v>
+      </c>
+      <c r="C308" s="6">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="D308" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E308" s="17">
+        <v>8238</v>
+      </c>
+      <c r="F308" s="17">
+        <v>8191</v>
+      </c>
+      <c r="G308" s="17">
         <v>0</v>
       </c>
     </row>
@@ -8018,13 +9795,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31F5C3B-0571-4A35-9FD2-A50C21726EAB}">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B339" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A220" sqref="A220"/>
+      <selection pane="bottomRight" activeCell="A352" sqref="A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -14592,7 +16369,3990 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="12.65" customHeight="1"/>
+    <row r="220" spans="1:9">
+      <c r="A220" s="24">
+        <f>A219+1</f>
+        <v>46005</v>
+      </c>
+      <c r="B220" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" s="25">
+        <v>33011610</v>
+      </c>
+      <c r="D220" s="25">
+        <v>2445245</v>
+      </c>
+      <c r="E220" s="25">
+        <v>282577</v>
+      </c>
+      <c r="F220" s="25">
+        <v>651458</v>
+      </c>
+      <c r="G220" s="25">
+        <v>36390890</v>
+      </c>
+      <c r="H220" s="26">
+        <v>15.47</v>
+      </c>
+      <c r="I220" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="24">
+        <f>A218+1</f>
+        <v>46005</v>
+      </c>
+      <c r="B221" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C221" s="25">
+        <v>595025</v>
+      </c>
+      <c r="D221" s="25">
+        <v>56714</v>
+      </c>
+      <c r="E221" s="25">
+        <v>86</v>
+      </c>
+      <c r="F221" s="25">
+        <v>5762</v>
+      </c>
+      <c r="G221" s="25">
+        <v>657587</v>
+      </c>
+      <c r="H221" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="I221" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="24">
+        <f>A219+1</f>
+        <v>46005</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="25">
+        <f>SUM(C220:C221)</f>
+        <v>33606635</v>
+      </c>
+      <c r="D222" s="25">
+        <f t="shared" ref="D222:G222" si="8">SUM(D220:D221)</f>
+        <v>2501959</v>
+      </c>
+      <c r="E222" s="25">
+        <f t="shared" si="8"/>
+        <v>282663</v>
+      </c>
+      <c r="F222" s="25">
+        <f t="shared" si="8"/>
+        <v>657220</v>
+      </c>
+      <c r="G222" s="25">
+        <f t="shared" si="8"/>
+        <v>37048477</v>
+      </c>
+      <c r="H222" s="26">
+        <f>SUM(H220:H221)</f>
+        <v>15.63</v>
+      </c>
+      <c r="I222" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="24">
+        <f>A222+1</f>
+        <v>46006</v>
+      </c>
+      <c r="B223" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" s="25">
+        <v>33108378</v>
+      </c>
+      <c r="D223" s="25">
+        <v>2464428</v>
+      </c>
+      <c r="E223" s="25">
+        <v>283379</v>
+      </c>
+      <c r="F223" s="25">
+        <v>655568</v>
+      </c>
+      <c r="G223" s="25">
+        <v>36511753</v>
+      </c>
+      <c r="H223" s="26">
+        <v>15.54</v>
+      </c>
+      <c r="I223" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="24">
+        <f>A221+1</f>
+        <v>46006</v>
+      </c>
+      <c r="B224" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C224" s="25">
+        <v>595025</v>
+      </c>
+      <c r="D224" s="25">
+        <v>56714</v>
+      </c>
+      <c r="E224" s="25">
+        <v>86</v>
+      </c>
+      <c r="F224" s="25">
+        <v>5762</v>
+      </c>
+      <c r="G224" s="25">
+        <v>657587</v>
+      </c>
+      <c r="H224" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="I224" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="24">
+        <f>A222+1</f>
+        <v>46006</v>
+      </c>
+      <c r="B225" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225" s="25">
+        <f>SUM(C223:C224)</f>
+        <v>33703403</v>
+      </c>
+      <c r="D225" s="25">
+        <f t="shared" ref="D225:G225" si="9">SUM(D223:D224)</f>
+        <v>2521142</v>
+      </c>
+      <c r="E225" s="25">
+        <f t="shared" si="9"/>
+        <v>283465</v>
+      </c>
+      <c r="F225" s="25">
+        <f t="shared" si="9"/>
+        <v>661330</v>
+      </c>
+      <c r="G225" s="25">
+        <f t="shared" si="9"/>
+        <v>37169340</v>
+      </c>
+      <c r="H225" s="26">
+        <f>SUM(H223:H224)</f>
+        <v>15.7</v>
+      </c>
+      <c r="I225" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="24">
+        <f>A225+1</f>
+        <v>46007</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" s="25">
+        <v>39175066</v>
+      </c>
+      <c r="D226" s="25">
+        <v>2755203</v>
+      </c>
+      <c r="E226" s="25">
+        <v>317999</v>
+      </c>
+      <c r="F226" s="25">
+        <v>719178</v>
+      </c>
+      <c r="G226" s="25">
+        <v>42967446</v>
+      </c>
+      <c r="H226" s="26">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="I226" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="24">
+        <f>A224+1</f>
+        <v>46007</v>
+      </c>
+      <c r="B227" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227" s="25">
+        <v>595025</v>
+      </c>
+      <c r="D227" s="25">
+        <v>56714</v>
+      </c>
+      <c r="E227" s="25">
+        <v>86</v>
+      </c>
+      <c r="F227" s="25">
+        <v>5762</v>
+      </c>
+      <c r="G227" s="25">
+        <v>657587</v>
+      </c>
+      <c r="H227" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="I227" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="24">
+        <f>A225+1</f>
+        <v>46007</v>
+      </c>
+      <c r="B228" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" s="25">
+        <f>SUM(C226:C227)</f>
+        <v>39770091</v>
+      </c>
+      <c r="D228" s="25">
+        <f t="shared" ref="D228:G228" si="10">SUM(D226:D227)</f>
+        <v>2811917</v>
+      </c>
+      <c r="E228" s="25">
+        <f t="shared" si="10"/>
+        <v>318085</v>
+      </c>
+      <c r="F228" s="25">
+        <f t="shared" si="10"/>
+        <v>724940</v>
+      </c>
+      <c r="G228" s="25">
+        <f t="shared" si="10"/>
+        <v>43625033</v>
+      </c>
+      <c r="H228" s="26">
+        <f>SUM(H226:H227)</f>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I228" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="24">
+        <f>A228+1</f>
+        <v>46008</v>
+      </c>
+      <c r="B229" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="25">
+        <v>39175066</v>
+      </c>
+      <c r="D229" s="25">
+        <v>2755203</v>
+      </c>
+      <c r="E229" s="25">
+        <v>317999</v>
+      </c>
+      <c r="F229" s="25">
+        <v>719178</v>
+      </c>
+      <c r="G229" s="25">
+        <v>42967446</v>
+      </c>
+      <c r="H229" s="26">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="I229" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="24">
+        <f>A227+1</f>
+        <v>46008</v>
+      </c>
+      <c r="B230" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C230" s="25">
+        <v>595025</v>
+      </c>
+      <c r="D230" s="25">
+        <v>56714</v>
+      </c>
+      <c r="E230" s="25">
+        <v>86</v>
+      </c>
+      <c r="F230" s="25">
+        <v>5762</v>
+      </c>
+      <c r="G230" s="25">
+        <v>657587</v>
+      </c>
+      <c r="H230" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="I230" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="24">
+        <f>A228+1</f>
+        <v>46008</v>
+      </c>
+      <c r="B231" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="25">
+        <f>SUM(C229:C230)</f>
+        <v>39770091</v>
+      </c>
+      <c r="D231" s="25">
+        <f t="shared" ref="D231:G231" si="11">SUM(D229:D230)</f>
+        <v>2811917</v>
+      </c>
+      <c r="E231" s="25">
+        <f t="shared" si="11"/>
+        <v>318085</v>
+      </c>
+      <c r="F231" s="25">
+        <f t="shared" si="11"/>
+        <v>724940</v>
+      </c>
+      <c r="G231" s="25">
+        <f t="shared" si="11"/>
+        <v>43625033</v>
+      </c>
+      <c r="H231" s="26">
+        <f>SUM(H229:H230)</f>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I231" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="24">
+        <f>A231+1</f>
+        <v>46009</v>
+      </c>
+      <c r="B232" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="25">
+        <v>0</v>
+      </c>
+      <c r="D232" s="25">
+        <v>0</v>
+      </c>
+      <c r="E232" s="25">
+        <v>0</v>
+      </c>
+      <c r="F232" s="25">
+        <v>0</v>
+      </c>
+      <c r="G232" s="25">
+        <v>0</v>
+      </c>
+      <c r="H232" s="26">
+        <v>0</v>
+      </c>
+      <c r="I232" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="24">
+        <f>A232+1</f>
+        <v>46010</v>
+      </c>
+      <c r="B233" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" s="25">
+        <v>0</v>
+      </c>
+      <c r="D233" s="25">
+        <v>0</v>
+      </c>
+      <c r="E233" s="25">
+        <v>0</v>
+      </c>
+      <c r="F233" s="25">
+        <v>0</v>
+      </c>
+      <c r="G233" s="25">
+        <v>0</v>
+      </c>
+      <c r="H233" s="26">
+        <v>0</v>
+      </c>
+      <c r="I233" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="24">
+        <f>A233+1</f>
+        <v>46011</v>
+      </c>
+      <c r="B234" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" s="25">
+        <v>232654</v>
+      </c>
+      <c r="D234" s="25">
+        <v>44534</v>
+      </c>
+      <c r="E234" s="25">
+        <v>7580</v>
+      </c>
+      <c r="F234" s="25">
+        <v>15563</v>
+      </c>
+      <c r="G234" s="25">
+        <v>300331</v>
+      </c>
+      <c r="H234" s="26">
+        <v>0.22</v>
+      </c>
+      <c r="I234" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="24">
+        <f>A233+1</f>
+        <v>46011</v>
+      </c>
+      <c r="B235" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235" s="25">
+        <v>232654</v>
+      </c>
+      <c r="D235" s="25">
+        <v>44534</v>
+      </c>
+      <c r="E235" s="25">
+        <v>7580</v>
+      </c>
+      <c r="F235" s="25">
+        <v>15563</v>
+      </c>
+      <c r="G235" s="25">
+        <v>300331</v>
+      </c>
+      <c r="H235" s="26">
+        <v>0.22</v>
+      </c>
+      <c r="I235" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="24">
+        <f>A235+1</f>
+        <v>46012</v>
+      </c>
+      <c r="B236" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" s="25">
+        <v>5190841</v>
+      </c>
+      <c r="D236" s="25">
+        <v>316020</v>
+      </c>
+      <c r="E236" s="25">
+        <v>60400</v>
+      </c>
+      <c r="F236" s="25">
+        <v>76764</v>
+      </c>
+      <c r="G236" s="25">
+        <v>5644025</v>
+      </c>
+      <c r="H236" s="26">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I236" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="24">
+        <f>A235+1</f>
+        <v>46012</v>
+      </c>
+      <c r="B237" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="25">
+        <v>5190841</v>
+      </c>
+      <c r="D237" s="25">
+        <v>316020</v>
+      </c>
+      <c r="E237" s="25">
+        <v>60400</v>
+      </c>
+      <c r="F237" s="25">
+        <v>76764</v>
+      </c>
+      <c r="G237" s="25">
+        <v>5644025</v>
+      </c>
+      <c r="H237" s="26">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I237" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="24">
+        <f>A237+1</f>
+        <v>46013</v>
+      </c>
+      <c r="B238" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" s="25">
+        <v>5248953</v>
+      </c>
+      <c r="D238" s="25">
+        <v>330106</v>
+      </c>
+      <c r="E238" s="25">
+        <v>60400</v>
+      </c>
+      <c r="F238" s="25">
+        <v>79817</v>
+      </c>
+      <c r="G238" s="25">
+        <v>5719276</v>
+      </c>
+      <c r="H238" s="26">
+        <v>2.27</v>
+      </c>
+      <c r="I238" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="24">
+        <f>A237+1</f>
+        <v>46013</v>
+      </c>
+      <c r="B239" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" s="25">
+        <v>5248953</v>
+      </c>
+      <c r="D239" s="25">
+        <v>330106</v>
+      </c>
+      <c r="E239" s="25">
+        <v>60400</v>
+      </c>
+      <c r="F239" s="25">
+        <v>79817</v>
+      </c>
+      <c r="G239" s="25">
+        <v>5719276</v>
+      </c>
+      <c r="H239" s="26">
+        <v>2.27</v>
+      </c>
+      <c r="I239" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="24">
+        <f>A239+1</f>
+        <v>46014</v>
+      </c>
+      <c r="B240" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" s="25">
+        <v>5321401</v>
+      </c>
+      <c r="D240" s="25">
+        <v>342163</v>
+      </c>
+      <c r="E240" s="25">
+        <v>60400</v>
+      </c>
+      <c r="F240" s="25">
+        <v>81918</v>
+      </c>
+      <c r="G240" s="25">
+        <v>5805882</v>
+      </c>
+      <c r="H240" s="26">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I240" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="24">
+        <f>A239+1</f>
+        <v>46014</v>
+      </c>
+      <c r="B241" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="25">
+        <v>5321401</v>
+      </c>
+      <c r="D241" s="25">
+        <v>342163</v>
+      </c>
+      <c r="E241" s="25">
+        <v>60400</v>
+      </c>
+      <c r="F241" s="25">
+        <v>81918</v>
+      </c>
+      <c r="G241" s="25">
+        <v>5805882</v>
+      </c>
+      <c r="H241" s="26">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I241" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="24">
+        <f>A241+1</f>
+        <v>46015</v>
+      </c>
+      <c r="B242" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" s="25">
+        <v>6280633</v>
+      </c>
+      <c r="D242" s="25">
+        <v>433191</v>
+      </c>
+      <c r="E242" s="25">
+        <v>60400</v>
+      </c>
+      <c r="F242" s="25">
+        <v>101121</v>
+      </c>
+      <c r="G242" s="25">
+        <v>6875345</v>
+      </c>
+      <c r="H242" s="26">
+        <v>2.78</v>
+      </c>
+      <c r="I242" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="24">
+        <f>A241+1</f>
+        <v>46015</v>
+      </c>
+      <c r="B243" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" s="25">
+        <v>6280633</v>
+      </c>
+      <c r="D243" s="25">
+        <v>433191</v>
+      </c>
+      <c r="E243" s="25">
+        <v>60400</v>
+      </c>
+      <c r="F243" s="25">
+        <v>101121</v>
+      </c>
+      <c r="G243" s="25">
+        <v>6875345</v>
+      </c>
+      <c r="H243" s="26">
+        <v>2.78</v>
+      </c>
+      <c r="I243" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="24">
+        <f>A243+1</f>
+        <v>46016</v>
+      </c>
+      <c r="B244" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" s="25">
+        <v>9993230</v>
+      </c>
+      <c r="D244" s="25">
+        <v>709592</v>
+      </c>
+      <c r="E244" s="25">
+        <v>87172</v>
+      </c>
+      <c r="F244" s="25">
+        <v>157644</v>
+      </c>
+      <c r="G244" s="25">
+        <v>10947638</v>
+      </c>
+      <c r="H244" s="26">
+        <v>4.43</v>
+      </c>
+      <c r="I244" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="24">
+        <f>A243+1</f>
+        <v>46016</v>
+      </c>
+      <c r="B245" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245" s="25">
+        <v>9993230</v>
+      </c>
+      <c r="D245" s="25">
+        <v>709592</v>
+      </c>
+      <c r="E245" s="25">
+        <v>87172</v>
+      </c>
+      <c r="F245" s="25">
+        <v>157644</v>
+      </c>
+      <c r="G245" s="25">
+        <v>10947638</v>
+      </c>
+      <c r="H245" s="26">
+        <v>4.43</v>
+      </c>
+      <c r="I245" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="24">
+        <f>A245+1</f>
+        <v>46017</v>
+      </c>
+      <c r="B246" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="25">
+        <v>9993230</v>
+      </c>
+      <c r="D246" s="25">
+        <v>709592</v>
+      </c>
+      <c r="E246" s="25">
+        <v>87172</v>
+      </c>
+      <c r="F246" s="25">
+        <v>157644</v>
+      </c>
+      <c r="G246" s="25">
+        <v>10947638</v>
+      </c>
+      <c r="H246" s="26">
+        <v>4.43</v>
+      </c>
+      <c r="I246" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="24">
+        <f>A245+1</f>
+        <v>46017</v>
+      </c>
+      <c r="B247" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C247" s="25">
+        <v>9993230</v>
+      </c>
+      <c r="D247" s="25">
+        <v>709592</v>
+      </c>
+      <c r="E247" s="25">
+        <v>87172</v>
+      </c>
+      <c r="F247" s="25">
+        <v>157644</v>
+      </c>
+      <c r="G247" s="25">
+        <v>10947638</v>
+      </c>
+      <c r="H247" s="26">
+        <v>4.43</v>
+      </c>
+      <c r="I247" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="24">
+        <f>A247+1</f>
+        <v>46018</v>
+      </c>
+      <c r="B248" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="25">
+        <v>9993230</v>
+      </c>
+      <c r="D248" s="25">
+        <v>709592</v>
+      </c>
+      <c r="E248" s="25">
+        <v>87172</v>
+      </c>
+      <c r="F248" s="25">
+        <v>157644</v>
+      </c>
+      <c r="G248" s="25">
+        <v>10947638</v>
+      </c>
+      <c r="H248" s="26">
+        <v>4.43</v>
+      </c>
+      <c r="I248" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="24">
+        <f>A247+1</f>
+        <v>46018</v>
+      </c>
+      <c r="B249" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C249" s="25">
+        <v>9993230</v>
+      </c>
+      <c r="D249" s="25">
+        <v>709592</v>
+      </c>
+      <c r="E249" s="25">
+        <v>87172</v>
+      </c>
+      <c r="F249" s="25">
+        <v>157644</v>
+      </c>
+      <c r="G249" s="25">
+        <v>10947638</v>
+      </c>
+      <c r="H249" s="26">
+        <v>4.43</v>
+      </c>
+      <c r="I249" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="24">
+        <f>A249+1</f>
+        <v>46019</v>
+      </c>
+      <c r="B250" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" s="25">
+        <v>10020110</v>
+      </c>
+      <c r="D250" s="25">
+        <v>713062</v>
+      </c>
+      <c r="E250" s="25">
+        <v>87172</v>
+      </c>
+      <c r="F250" s="25">
+        <v>159038</v>
+      </c>
+      <c r="G250" s="25">
+        <v>10979382</v>
+      </c>
+      <c r="H250" s="26">
+        <v>4.45</v>
+      </c>
+      <c r="I250" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="24">
+        <f>A249+1</f>
+        <v>46019</v>
+      </c>
+      <c r="B251" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C251" s="25">
+        <v>10020110</v>
+      </c>
+      <c r="D251" s="25">
+        <v>713062</v>
+      </c>
+      <c r="E251" s="25">
+        <v>87172</v>
+      </c>
+      <c r="F251" s="25">
+        <v>159038</v>
+      </c>
+      <c r="G251" s="25">
+        <v>10979382</v>
+      </c>
+      <c r="H251" s="26">
+        <v>4.45</v>
+      </c>
+      <c r="I251" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="24">
+        <f>A251+1</f>
+        <v>46020</v>
+      </c>
+      <c r="B252" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="25">
+        <v>10817550</v>
+      </c>
+      <c r="D252" s="25">
+        <v>779066</v>
+      </c>
+      <c r="E252" s="25">
+        <v>87236</v>
+      </c>
+      <c r="F252" s="25">
+        <v>170737</v>
+      </c>
+      <c r="G252" s="25">
+        <v>11854589</v>
+      </c>
+      <c r="H252" s="26">
+        <v>4.79</v>
+      </c>
+      <c r="I252" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="24">
+        <f>A251+1</f>
+        <v>46020</v>
+      </c>
+      <c r="B253" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253" s="25">
+        <v>10817550</v>
+      </c>
+      <c r="D253" s="25">
+        <v>779066</v>
+      </c>
+      <c r="E253" s="25">
+        <v>87236</v>
+      </c>
+      <c r="F253" s="25">
+        <v>170737</v>
+      </c>
+      <c r="G253" s="25">
+        <v>11854589</v>
+      </c>
+      <c r="H253" s="26">
+        <v>4.79</v>
+      </c>
+      <c r="I253" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="24">
+        <f>A253+1</f>
+        <v>46021</v>
+      </c>
+      <c r="B254" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" s="25">
+        <v>12158222</v>
+      </c>
+      <c r="D254" s="25">
+        <v>947070</v>
+      </c>
+      <c r="E254" s="25">
+        <v>87236</v>
+      </c>
+      <c r="F254" s="25">
+        <v>190025</v>
+      </c>
+      <c r="G254" s="25">
+        <v>13382553</v>
+      </c>
+      <c r="H254" s="26">
+        <v>5.45</v>
+      </c>
+      <c r="I254" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="24">
+        <f>A253+1</f>
+        <v>46021</v>
+      </c>
+      <c r="B255" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C255" s="25">
+        <v>12158222</v>
+      </c>
+      <c r="D255" s="25">
+        <v>947070</v>
+      </c>
+      <c r="E255" s="25">
+        <v>87236</v>
+      </c>
+      <c r="F255" s="25">
+        <v>190025</v>
+      </c>
+      <c r="G255" s="25">
+        <v>13382553</v>
+      </c>
+      <c r="H255" s="26">
+        <v>5.45</v>
+      </c>
+      <c r="I255" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="24">
+        <f>A255+1</f>
+        <v>46022</v>
+      </c>
+      <c r="B256" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" s="25">
+        <v>12659673</v>
+      </c>
+      <c r="D256" s="25">
+        <v>1002964</v>
+      </c>
+      <c r="E256" s="25">
+        <v>92519</v>
+      </c>
+      <c r="F256" s="25">
+        <v>195569</v>
+      </c>
+      <c r="G256" s="25">
+        <v>13950725</v>
+      </c>
+      <c r="H256" s="26">
+        <v>5.68</v>
+      </c>
+      <c r="I256" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="24">
+        <f>A255+1</f>
+        <v>46022</v>
+      </c>
+      <c r="B257" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257" s="25">
+        <v>12659673</v>
+      </c>
+      <c r="D257" s="25">
+        <v>1002964</v>
+      </c>
+      <c r="E257" s="25">
+        <v>92519</v>
+      </c>
+      <c r="F257" s="25">
+        <v>195569</v>
+      </c>
+      <c r="G257" s="25">
+        <v>13950725</v>
+      </c>
+      <c r="H257" s="26">
+        <v>5.68</v>
+      </c>
+      <c r="I257" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="24">
+        <f>A257+1</f>
+        <v>46023</v>
+      </c>
+      <c r="B258" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" s="25">
+        <v>12659673</v>
+      </c>
+      <c r="D258" s="25">
+        <v>1002964</v>
+      </c>
+      <c r="E258" s="25">
+        <v>92519</v>
+      </c>
+      <c r="F258" s="25">
+        <v>195569</v>
+      </c>
+      <c r="G258" s="25">
+        <v>13950725</v>
+      </c>
+      <c r="H258" s="26">
+        <v>5.68</v>
+      </c>
+      <c r="I258" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="24">
+        <f>A257+1</f>
+        <v>46023</v>
+      </c>
+      <c r="B259" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C259" s="25">
+        <v>12659673</v>
+      </c>
+      <c r="D259" s="25">
+        <v>1002964</v>
+      </c>
+      <c r="E259" s="25">
+        <v>92519</v>
+      </c>
+      <c r="F259" s="25">
+        <v>195569</v>
+      </c>
+      <c r="G259" s="25">
+        <v>13950725</v>
+      </c>
+      <c r="H259" s="26">
+        <v>5.68</v>
+      </c>
+      <c r="I259" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="24">
+        <f>A259+1</f>
+        <v>46024</v>
+      </c>
+      <c r="B260" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C260" s="25">
+        <v>15502297</v>
+      </c>
+      <c r="D260" s="25">
+        <v>1154053</v>
+      </c>
+      <c r="E260" s="25">
+        <v>92519</v>
+      </c>
+      <c r="F260" s="25">
+        <v>218172</v>
+      </c>
+      <c r="G260" s="25">
+        <v>16967041</v>
+      </c>
+      <c r="H260" s="26">
+        <v>6.72</v>
+      </c>
+      <c r="I260" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="24">
+        <f>A259+1</f>
+        <v>46024</v>
+      </c>
+      <c r="B261" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261" s="25">
+        <v>15502297</v>
+      </c>
+      <c r="D261" s="25">
+        <v>1154053</v>
+      </c>
+      <c r="E261" s="25">
+        <v>92519</v>
+      </c>
+      <c r="F261" s="25">
+        <v>218172</v>
+      </c>
+      <c r="G261" s="25">
+        <v>16967041</v>
+      </c>
+      <c r="H261" s="26">
+        <v>6.72</v>
+      </c>
+      <c r="I261" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="24">
+        <f>A261+1</f>
+        <v>46025</v>
+      </c>
+      <c r="B262" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" s="25">
+        <v>18295001</v>
+      </c>
+      <c r="D262" s="25">
+        <v>1376159</v>
+      </c>
+      <c r="E262" s="25">
+        <v>94491</v>
+      </c>
+      <c r="F262" s="25">
+        <v>246493</v>
+      </c>
+      <c r="G262" s="25">
+        <v>20012144</v>
+      </c>
+      <c r="H262" s="26">
+        <v>7.88</v>
+      </c>
+      <c r="I262" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="24">
+        <f>A261+1</f>
+        <v>46025</v>
+      </c>
+      <c r="B263" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C263" s="25">
+        <v>18295001</v>
+      </c>
+      <c r="D263" s="25">
+        <v>1376159</v>
+      </c>
+      <c r="E263" s="25">
+        <v>94491</v>
+      </c>
+      <c r="F263" s="25">
+        <v>246493</v>
+      </c>
+      <c r="G263" s="25">
+        <v>20012144</v>
+      </c>
+      <c r="H263" s="26">
+        <v>7.88</v>
+      </c>
+      <c r="I263" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="24">
+        <f>A263+1</f>
+        <v>46026</v>
+      </c>
+      <c r="B264" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="25">
+        <v>24093080</v>
+      </c>
+      <c r="D264" s="25">
+        <v>1808363</v>
+      </c>
+      <c r="E264" s="25">
+        <v>235082</v>
+      </c>
+      <c r="F264" s="25">
+        <v>342699</v>
+      </c>
+      <c r="G264" s="25">
+        <v>26479224</v>
+      </c>
+      <c r="H264" s="26">
+        <v>10.63</v>
+      </c>
+      <c r="I264" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="24">
+        <f>A263+1</f>
+        <v>46026</v>
+      </c>
+      <c r="B265" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C265" s="25">
+        <v>24093080</v>
+      </c>
+      <c r="D265" s="25">
+        <v>1808363</v>
+      </c>
+      <c r="E265" s="25">
+        <v>235082</v>
+      </c>
+      <c r="F265" s="25">
+        <v>342699</v>
+      </c>
+      <c r="G265" s="25">
+        <v>26479224</v>
+      </c>
+      <c r="H265" s="26">
+        <v>10.63</v>
+      </c>
+      <c r="I265" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="24">
+        <f>A265+1</f>
+        <v>46027</v>
+      </c>
+      <c r="B266" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" s="25">
+        <v>29576550</v>
+      </c>
+      <c r="D266" s="25">
+        <v>2347759</v>
+      </c>
+      <c r="E266" s="25">
+        <v>335496</v>
+      </c>
+      <c r="F266" s="25">
+        <v>384835</v>
+      </c>
+      <c r="G266" s="25">
+        <v>32644640</v>
+      </c>
+      <c r="H266" s="26">
+        <v>13.05</v>
+      </c>
+      <c r="I266" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="24">
+        <f>A265+1</f>
+        <v>46027</v>
+      </c>
+      <c r="B267" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C267" s="25">
+        <v>29576550</v>
+      </c>
+      <c r="D267" s="25">
+        <v>2347759</v>
+      </c>
+      <c r="E267" s="25">
+        <v>335496</v>
+      </c>
+      <c r="F267" s="25">
+        <v>384835</v>
+      </c>
+      <c r="G267" s="25">
+        <v>32644640</v>
+      </c>
+      <c r="H267" s="26">
+        <v>13.05</v>
+      </c>
+      <c r="I267" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="24">
+        <f>A267+1</f>
+        <v>46028</v>
+      </c>
+      <c r="B268" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" s="25">
+        <v>38658643</v>
+      </c>
+      <c r="D268" s="25">
+        <v>3239707</v>
+      </c>
+      <c r="E268" s="25">
+        <v>352818</v>
+      </c>
+      <c r="F268" s="25">
+        <v>510409</v>
+      </c>
+      <c r="G268" s="25">
+        <v>42761577</v>
+      </c>
+      <c r="H268" s="26">
+        <v>17.22</v>
+      </c>
+      <c r="I268" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="24">
+        <f>A267+1</f>
+        <v>46028</v>
+      </c>
+      <c r="B269" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C269" s="25">
+        <v>38658643</v>
+      </c>
+      <c r="D269" s="25">
+        <v>3239707</v>
+      </c>
+      <c r="E269" s="25">
+        <v>352818</v>
+      </c>
+      <c r="F269" s="25">
+        <v>510409</v>
+      </c>
+      <c r="G269" s="25">
+        <v>42761577</v>
+      </c>
+      <c r="H269" s="26">
+        <v>17.22</v>
+      </c>
+      <c r="I269" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="24">
+        <f>A269+1</f>
+        <v>46029</v>
+      </c>
+      <c r="B270" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" s="25">
+        <v>42766163</v>
+      </c>
+      <c r="D270" s="25">
+        <v>3646140</v>
+      </c>
+      <c r="E270" s="25">
+        <v>412064</v>
+      </c>
+      <c r="F270" s="25">
+        <v>574982</v>
+      </c>
+      <c r="G270" s="25">
+        <v>47399349</v>
+      </c>
+      <c r="H270" s="26">
+        <v>19.21</v>
+      </c>
+      <c r="I270" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="24">
+        <f>A269+1</f>
+        <v>46029</v>
+      </c>
+      <c r="B271" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C271" s="25">
+        <v>42766163</v>
+      </c>
+      <c r="D271" s="25">
+        <v>3646140</v>
+      </c>
+      <c r="E271" s="25">
+        <v>412064</v>
+      </c>
+      <c r="F271" s="25">
+        <v>574982</v>
+      </c>
+      <c r="G271" s="25">
+        <v>47399349</v>
+      </c>
+      <c r="H271" s="26">
+        <v>19.21</v>
+      </c>
+      <c r="I271" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="24">
+        <f>A271+1</f>
+        <v>46030</v>
+      </c>
+      <c r="B272" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" s="25">
+        <v>46553171</v>
+      </c>
+      <c r="D272" s="25">
+        <v>3887311</v>
+      </c>
+      <c r="E272" s="25">
+        <v>412064</v>
+      </c>
+      <c r="F272" s="25">
+        <v>603773</v>
+      </c>
+      <c r="G272" s="25">
+        <v>51456319</v>
+      </c>
+      <c r="H272" s="26">
+        <v>20.65</v>
+      </c>
+      <c r="I272" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="24">
+        <f>A271+1</f>
+        <v>46030</v>
+      </c>
+      <c r="B273" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C273" s="25">
+        <v>46553171</v>
+      </c>
+      <c r="D273" s="25">
+        <v>3887311</v>
+      </c>
+      <c r="E273" s="25">
+        <v>412064</v>
+      </c>
+      <c r="F273" s="25">
+        <v>603773</v>
+      </c>
+      <c r="G273" s="25">
+        <v>51456319</v>
+      </c>
+      <c r="H273" s="26">
+        <v>20.65</v>
+      </c>
+      <c r="I273" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="24">
+        <f>A273+1</f>
+        <v>46031</v>
+      </c>
+      <c r="B274" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" s="25">
+        <v>48443988</v>
+      </c>
+      <c r="D274" s="25">
+        <v>4051693</v>
+      </c>
+      <c r="E274" s="25">
+        <v>414057</v>
+      </c>
+      <c r="F274" s="25">
+        <v>620307</v>
+      </c>
+      <c r="G274" s="25">
+        <v>53530045</v>
+      </c>
+      <c r="H274" s="26">
+        <v>21.44</v>
+      </c>
+      <c r="I274" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="24">
+        <f>A273+1</f>
+        <v>46031</v>
+      </c>
+      <c r="B275" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275" s="25">
+        <v>48443988</v>
+      </c>
+      <c r="D275" s="25">
+        <v>4051693</v>
+      </c>
+      <c r="E275" s="25">
+        <v>414057</v>
+      </c>
+      <c r="F275" s="25">
+        <v>620307</v>
+      </c>
+      <c r="G275" s="25">
+        <v>53530045</v>
+      </c>
+      <c r="H275" s="26">
+        <v>21.44</v>
+      </c>
+      <c r="I275" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="24">
+        <f>A275+1</f>
+        <v>46032</v>
+      </c>
+      <c r="B276" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" s="25">
+        <v>53093176</v>
+      </c>
+      <c r="D276" s="25">
+        <v>4295678</v>
+      </c>
+      <c r="E276" s="25">
+        <v>550542</v>
+      </c>
+      <c r="F276" s="25">
+        <v>666853</v>
+      </c>
+      <c r="G276" s="25">
+        <v>58606249</v>
+      </c>
+      <c r="H276" s="26">
+        <v>23.35</v>
+      </c>
+      <c r="I276" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="24">
+        <f>A275+1</f>
+        <v>46032</v>
+      </c>
+      <c r="B277" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C277" s="25">
+        <v>53093176</v>
+      </c>
+      <c r="D277" s="25">
+        <v>4295678</v>
+      </c>
+      <c r="E277" s="25">
+        <v>550542</v>
+      </c>
+      <c r="F277" s="25">
+        <v>666853</v>
+      </c>
+      <c r="G277" s="25">
+        <v>58606249</v>
+      </c>
+      <c r="H277" s="26">
+        <v>23.35</v>
+      </c>
+      <c r="I277" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" s="24">
+        <f>A277+1</f>
+        <v>46033</v>
+      </c>
+      <c r="B278" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" s="25">
+        <v>54010257</v>
+      </c>
+      <c r="D278" s="25">
+        <v>4418737</v>
+      </c>
+      <c r="E278" s="25">
+        <v>551269</v>
+      </c>
+      <c r="F278" s="25">
+        <v>682683</v>
+      </c>
+      <c r="G278" s="25">
+        <v>59662946</v>
+      </c>
+      <c r="H278" s="26">
+        <v>23.83</v>
+      </c>
+      <c r="I278" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="24">
+        <f>A277+1</f>
+        <v>46033</v>
+      </c>
+      <c r="B279" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C279" s="25">
+        <v>54010257</v>
+      </c>
+      <c r="D279" s="25">
+        <v>4418737</v>
+      </c>
+      <c r="E279" s="25">
+        <v>551269</v>
+      </c>
+      <c r="F279" s="25">
+        <v>682683</v>
+      </c>
+      <c r="G279" s="25">
+        <v>59662946</v>
+      </c>
+      <c r="H279" s="26">
+        <v>23.83</v>
+      </c>
+      <c r="I279" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="24">
+        <f>A279+1</f>
+        <v>46034</v>
+      </c>
+      <c r="B280" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" s="25">
+        <v>56079761</v>
+      </c>
+      <c r="D280" s="25">
+        <v>4560437</v>
+      </c>
+      <c r="E280" s="25">
+        <v>557701</v>
+      </c>
+      <c r="F280" s="25">
+        <v>725031</v>
+      </c>
+      <c r="G280" s="25">
+        <v>61922930</v>
+      </c>
+      <c r="H280" s="26">
+        <v>25.04</v>
+      </c>
+      <c r="I280" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="24">
+        <f>A279+1</f>
+        <v>46034</v>
+      </c>
+      <c r="B281" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281" s="25">
+        <v>56079761</v>
+      </c>
+      <c r="D281" s="25">
+        <v>4560437</v>
+      </c>
+      <c r="E281" s="25">
+        <v>557701</v>
+      </c>
+      <c r="F281" s="25">
+        <v>725031</v>
+      </c>
+      <c r="G281" s="25">
+        <v>61922930</v>
+      </c>
+      <c r="H281" s="26">
+        <v>25.04</v>
+      </c>
+      <c r="I281" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="24">
+        <f>A281+1</f>
+        <v>46035</v>
+      </c>
+      <c r="B282" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" s="25">
+        <v>56079761</v>
+      </c>
+      <c r="D282" s="25">
+        <v>4560437</v>
+      </c>
+      <c r="E282" s="25">
+        <v>557701</v>
+      </c>
+      <c r="F282" s="25">
+        <v>725031</v>
+      </c>
+      <c r="G282" s="25">
+        <v>61922930</v>
+      </c>
+      <c r="H282" s="26">
+        <v>25.04</v>
+      </c>
+      <c r="I282" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="24">
+        <f>A281+1</f>
+        <v>46035</v>
+      </c>
+      <c r="B283" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C283" s="25">
+        <v>56079761</v>
+      </c>
+      <c r="D283" s="25">
+        <v>4560437</v>
+      </c>
+      <c r="E283" s="25">
+        <v>557701</v>
+      </c>
+      <c r="F283" s="25">
+        <v>725031</v>
+      </c>
+      <c r="G283" s="25">
+        <v>61922930</v>
+      </c>
+      <c r="H283" s="26">
+        <v>25.04</v>
+      </c>
+      <c r="I283" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="24">
+        <f>A283+1</f>
+        <v>46036</v>
+      </c>
+      <c r="B284" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" s="25">
+        <v>56079761</v>
+      </c>
+      <c r="D284" s="25">
+        <v>4560437</v>
+      </c>
+      <c r="E284" s="25">
+        <v>557701</v>
+      </c>
+      <c r="F284" s="25">
+        <v>725031</v>
+      </c>
+      <c r="G284" s="25">
+        <v>61922930</v>
+      </c>
+      <c r="H284" s="26">
+        <v>25.04</v>
+      </c>
+      <c r="I284" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="24">
+        <f>A283+1</f>
+        <v>46036</v>
+      </c>
+      <c r="B285" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C285" s="25">
+        <v>56079761</v>
+      </c>
+      <c r="D285" s="25">
+        <v>4560437</v>
+      </c>
+      <c r="E285" s="25">
+        <v>557701</v>
+      </c>
+      <c r="F285" s="25">
+        <v>725031</v>
+      </c>
+      <c r="G285" s="25">
+        <v>61922930</v>
+      </c>
+      <c r="H285" s="26">
+        <v>25.04</v>
+      </c>
+      <c r="I285" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="24">
+        <f>A285+1</f>
+        <v>46037</v>
+      </c>
+      <c r="B286" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" s="25">
+        <v>60772042</v>
+      </c>
+      <c r="D286" s="25">
+        <v>4879654</v>
+      </c>
+      <c r="E286" s="25">
+        <v>587781</v>
+      </c>
+      <c r="F286" s="25">
+        <v>789869</v>
+      </c>
+      <c r="G286" s="25">
+        <v>67029346</v>
+      </c>
+      <c r="H286" s="26">
+        <v>27.03</v>
+      </c>
+      <c r="I286" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="24">
+        <f>A285+1</f>
+        <v>46037</v>
+      </c>
+      <c r="B287" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C287" s="25">
+        <v>60772042</v>
+      </c>
+      <c r="D287" s="25">
+        <v>4879654</v>
+      </c>
+      <c r="E287" s="25">
+        <v>587781</v>
+      </c>
+      <c r="F287" s="25">
+        <v>789869</v>
+      </c>
+      <c r="G287" s="25">
+        <v>67029346</v>
+      </c>
+      <c r="H287" s="26">
+        <v>27.03</v>
+      </c>
+      <c r="I287" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="24">
+        <f>A287+1</f>
+        <v>46038</v>
+      </c>
+      <c r="B288" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" s="25">
+        <v>63539364</v>
+      </c>
+      <c r="D288" s="25">
+        <v>5135976</v>
+      </c>
+      <c r="E288" s="25">
+        <v>608039</v>
+      </c>
+      <c r="F288" s="25">
+        <v>827421</v>
+      </c>
+      <c r="G288" s="25">
+        <v>70110800</v>
+      </c>
+      <c r="H288" s="26">
+        <v>28.26</v>
+      </c>
+      <c r="I288" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="24">
+        <f>A287+1</f>
+        <v>46038</v>
+      </c>
+      <c r="B289" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C289" s="25">
+        <v>63539364</v>
+      </c>
+      <c r="D289" s="25">
+        <v>5135976</v>
+      </c>
+      <c r="E289" s="25">
+        <v>608039</v>
+      </c>
+      <c r="F289" s="25">
+        <v>827421</v>
+      </c>
+      <c r="G289" s="25">
+        <v>70110800</v>
+      </c>
+      <c r="H289" s="26">
+        <v>28.26</v>
+      </c>
+      <c r="I289" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="24">
+        <f>A289+1</f>
+        <v>46039</v>
+      </c>
+      <c r="B290" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" s="25">
+        <v>0</v>
+      </c>
+      <c r="D290" s="25">
+        <v>0</v>
+      </c>
+      <c r="E290" s="25">
+        <v>0</v>
+      </c>
+      <c r="F290" s="25">
+        <v>0</v>
+      </c>
+      <c r="G290" s="25">
+        <v>0</v>
+      </c>
+      <c r="H290" s="26">
+        <v>0</v>
+      </c>
+      <c r="I290" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="24">
+        <f>A289+1</f>
+        <v>46039</v>
+      </c>
+      <c r="B291" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C291" s="25">
+        <v>0</v>
+      </c>
+      <c r="D291" s="25">
+        <v>0</v>
+      </c>
+      <c r="E291" s="25">
+        <v>0</v>
+      </c>
+      <c r="F291" s="25">
+        <v>0</v>
+      </c>
+      <c r="G291" s="25">
+        <v>0</v>
+      </c>
+      <c r="H291" s="26">
+        <v>0</v>
+      </c>
+      <c r="I291" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" s="24">
+        <f>A291+1</f>
+        <v>46040</v>
+      </c>
+      <c r="B292" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="25">
+        <v>0</v>
+      </c>
+      <c r="D292" s="25">
+        <v>0</v>
+      </c>
+      <c r="E292" s="25">
+        <v>0</v>
+      </c>
+      <c r="F292" s="25">
+        <v>0</v>
+      </c>
+      <c r="G292" s="25">
+        <v>0</v>
+      </c>
+      <c r="H292" s="26">
+        <v>0</v>
+      </c>
+      <c r="I292" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" s="24">
+        <f>A291+1</f>
+        <v>46040</v>
+      </c>
+      <c r="B293" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C293" s="25">
+        <v>0</v>
+      </c>
+      <c r="D293" s="25">
+        <v>0</v>
+      </c>
+      <c r="E293" s="25">
+        <v>0</v>
+      </c>
+      <c r="F293" s="25">
+        <v>0</v>
+      </c>
+      <c r="G293" s="25">
+        <v>0</v>
+      </c>
+      <c r="H293" s="26">
+        <v>0</v>
+      </c>
+      <c r="I293" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" s="24">
+        <f>A293+1</f>
+        <v>46041</v>
+      </c>
+      <c r="B294" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" s="25">
+        <v>0</v>
+      </c>
+      <c r="D294" s="25">
+        <v>0</v>
+      </c>
+      <c r="E294" s="25">
+        <v>0</v>
+      </c>
+      <c r="F294" s="25">
+        <v>0</v>
+      </c>
+      <c r="G294" s="25">
+        <v>0</v>
+      </c>
+      <c r="H294" s="26">
+        <v>0</v>
+      </c>
+      <c r="I294" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="24">
+        <f>A293+1</f>
+        <v>46041</v>
+      </c>
+      <c r="B295" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C295" s="25">
+        <v>0</v>
+      </c>
+      <c r="D295" s="25">
+        <v>0</v>
+      </c>
+      <c r="E295" s="25">
+        <v>0</v>
+      </c>
+      <c r="F295" s="25">
+        <v>0</v>
+      </c>
+      <c r="G295" s="25">
+        <v>0</v>
+      </c>
+      <c r="H295" s="26">
+        <v>0</v>
+      </c>
+      <c r="I295" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="24">
+        <f>A295+1</f>
+        <v>46042</v>
+      </c>
+      <c r="B296" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296" s="25">
+        <v>0</v>
+      </c>
+      <c r="D296" s="25">
+        <v>0</v>
+      </c>
+      <c r="E296" s="25">
+        <v>0</v>
+      </c>
+      <c r="F296" s="25">
+        <v>0</v>
+      </c>
+      <c r="G296" s="25">
+        <v>0</v>
+      </c>
+      <c r="H296" s="26">
+        <v>0</v>
+      </c>
+      <c r="I296" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="24">
+        <f>A295+1</f>
+        <v>46042</v>
+      </c>
+      <c r="B297" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C297" s="25">
+        <v>0</v>
+      </c>
+      <c r="D297" s="25">
+        <v>0</v>
+      </c>
+      <c r="E297" s="25">
+        <v>0</v>
+      </c>
+      <c r="F297" s="25">
+        <v>0</v>
+      </c>
+      <c r="G297" s="25">
+        <v>0</v>
+      </c>
+      <c r="H297" s="26">
+        <v>0</v>
+      </c>
+      <c r="I297" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="24">
+        <f>A297+1</f>
+        <v>46043</v>
+      </c>
+      <c r="B298" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298" s="25">
+        <v>0</v>
+      </c>
+      <c r="D298" s="25">
+        <v>0</v>
+      </c>
+      <c r="E298" s="25">
+        <v>0</v>
+      </c>
+      <c r="F298" s="25">
+        <v>0</v>
+      </c>
+      <c r="G298" s="25">
+        <v>0</v>
+      </c>
+      <c r="H298" s="26">
+        <v>0</v>
+      </c>
+      <c r="I298" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="24">
+        <f>A297+1</f>
+        <v>46043</v>
+      </c>
+      <c r="B299" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C299" s="25">
+        <v>0</v>
+      </c>
+      <c r="D299" s="25">
+        <v>0</v>
+      </c>
+      <c r="E299" s="25">
+        <v>0</v>
+      </c>
+      <c r="F299" s="25">
+        <v>0</v>
+      </c>
+      <c r="G299" s="25">
+        <v>0</v>
+      </c>
+      <c r="H299" s="26">
+        <v>0</v>
+      </c>
+      <c r="I299" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="24">
+        <f>A299+1</f>
+        <v>46044</v>
+      </c>
+      <c r="B300" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C300" s="25">
+        <v>0</v>
+      </c>
+      <c r="D300" s="25">
+        <v>0</v>
+      </c>
+      <c r="E300" s="25">
+        <v>0</v>
+      </c>
+      <c r="F300" s="25">
+        <v>0</v>
+      </c>
+      <c r="G300" s="25">
+        <v>0</v>
+      </c>
+      <c r="H300" s="26">
+        <v>0</v>
+      </c>
+      <c r="I300" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="24">
+        <f>A299+1</f>
+        <v>46044</v>
+      </c>
+      <c r="B301" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C301" s="25">
+        <v>0</v>
+      </c>
+      <c r="D301" s="25">
+        <v>0</v>
+      </c>
+      <c r="E301" s="25">
+        <v>0</v>
+      </c>
+      <c r="F301" s="25">
+        <v>0</v>
+      </c>
+      <c r="G301" s="25">
+        <v>0</v>
+      </c>
+      <c r="H301" s="26">
+        <v>0</v>
+      </c>
+      <c r="I301" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="24">
+        <f>A301+1</f>
+        <v>46045</v>
+      </c>
+      <c r="B302" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" s="25">
+        <v>0</v>
+      </c>
+      <c r="D302" s="25">
+        <v>0</v>
+      </c>
+      <c r="E302" s="25">
+        <v>0</v>
+      </c>
+      <c r="F302" s="25">
+        <v>0</v>
+      </c>
+      <c r="G302" s="25">
+        <v>0</v>
+      </c>
+      <c r="H302" s="26">
+        <v>0</v>
+      </c>
+      <c r="I302" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" s="24">
+        <f>A301+1</f>
+        <v>46045</v>
+      </c>
+      <c r="B303" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C303" s="25">
+        <v>0</v>
+      </c>
+      <c r="D303" s="25">
+        <v>0</v>
+      </c>
+      <c r="E303" s="25">
+        <v>0</v>
+      </c>
+      <c r="F303" s="25">
+        <v>0</v>
+      </c>
+      <c r="G303" s="25">
+        <v>0</v>
+      </c>
+      <c r="H303" s="26">
+        <v>0</v>
+      </c>
+      <c r="I303" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="24">
+        <f>A303+1</f>
+        <v>46046</v>
+      </c>
+      <c r="B304" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C304" s="25">
+        <v>0</v>
+      </c>
+      <c r="D304" s="25">
+        <v>0</v>
+      </c>
+      <c r="E304" s="25">
+        <v>0</v>
+      </c>
+      <c r="F304" s="25">
+        <v>0</v>
+      </c>
+      <c r="G304" s="25">
+        <v>0</v>
+      </c>
+      <c r="H304" s="26">
+        <v>0</v>
+      </c>
+      <c r="I304" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="24">
+        <f>A303+1</f>
+        <v>46046</v>
+      </c>
+      <c r="B305" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C305" s="25">
+        <v>0</v>
+      </c>
+      <c r="D305" s="25">
+        <v>0</v>
+      </c>
+      <c r="E305" s="25">
+        <v>0</v>
+      </c>
+      <c r="F305" s="25">
+        <v>0</v>
+      </c>
+      <c r="G305" s="25">
+        <v>0</v>
+      </c>
+      <c r="H305" s="26">
+        <v>0</v>
+      </c>
+      <c r="I305" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" s="24">
+        <f>A305+1</f>
+        <v>46047</v>
+      </c>
+      <c r="B306" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C306" s="25">
+        <v>6493440</v>
+      </c>
+      <c r="D306" s="25">
+        <v>361784</v>
+      </c>
+      <c r="E306" s="25">
+        <v>13302</v>
+      </c>
+      <c r="F306" s="25">
+        <v>91748</v>
+      </c>
+      <c r="G306" s="25">
+        <v>6960274</v>
+      </c>
+      <c r="H306" s="26">
+        <v>2.64</v>
+      </c>
+      <c r="I306" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" s="24">
+        <f>A305+1</f>
+        <v>46047</v>
+      </c>
+      <c r="B307" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C307" s="25">
+        <v>6493440</v>
+      </c>
+      <c r="D307" s="25">
+        <v>361784</v>
+      </c>
+      <c r="E307" s="25">
+        <v>13302</v>
+      </c>
+      <c r="F307" s="25">
+        <v>91748</v>
+      </c>
+      <c r="G307" s="25">
+        <v>6960274</v>
+      </c>
+      <c r="H307" s="26">
+        <v>2.64</v>
+      </c>
+      <c r="I307" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" s="24">
+        <f>A307+1</f>
+        <v>46048</v>
+      </c>
+      <c r="B308" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" s="25">
+        <v>9381888</v>
+      </c>
+      <c r="D308" s="25">
+        <v>467609</v>
+      </c>
+      <c r="E308" s="25">
+        <v>13302</v>
+      </c>
+      <c r="F308" s="25">
+        <v>112827</v>
+      </c>
+      <c r="G308" s="25">
+        <v>9975626</v>
+      </c>
+      <c r="H308" s="26">
+        <v>3.64</v>
+      </c>
+      <c r="I308" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="24">
+        <f>A307+1</f>
+        <v>46048</v>
+      </c>
+      <c r="B309" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C309" s="25">
+        <v>9381888</v>
+      </c>
+      <c r="D309" s="25">
+        <v>467609</v>
+      </c>
+      <c r="E309" s="25">
+        <v>13302</v>
+      </c>
+      <c r="F309" s="25">
+        <v>112827</v>
+      </c>
+      <c r="G309" s="25">
+        <v>9975626</v>
+      </c>
+      <c r="H309" s="26">
+        <v>3.64</v>
+      </c>
+      <c r="I309" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="24">
+        <f>A309+1</f>
+        <v>46049</v>
+      </c>
+      <c r="B310" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" s="25">
+        <v>9467392</v>
+      </c>
+      <c r="D310" s="25">
+        <v>482674</v>
+      </c>
+      <c r="E310" s="25">
+        <v>13302</v>
+      </c>
+      <c r="F310" s="25">
+        <v>114799</v>
+      </c>
+      <c r="G310" s="25">
+        <v>10078167</v>
+      </c>
+      <c r="H310" s="26">
+        <v>3.69</v>
+      </c>
+      <c r="I310" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="24">
+        <f>A309+1</f>
+        <v>46049</v>
+      </c>
+      <c r="B311" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C311" s="25">
+        <v>9467392</v>
+      </c>
+      <c r="D311" s="25">
+        <v>482674</v>
+      </c>
+      <c r="E311" s="25">
+        <v>13302</v>
+      </c>
+      <c r="F311" s="25">
+        <v>114799</v>
+      </c>
+      <c r="G311" s="25">
+        <v>10078167</v>
+      </c>
+      <c r="H311" s="26">
+        <v>3.69</v>
+      </c>
+      <c r="I311" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" s="24">
+        <f>A311+1</f>
+        <v>46050</v>
+      </c>
+      <c r="B312" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312" s="25">
+        <v>10716880</v>
+      </c>
+      <c r="D312" s="25">
+        <v>966493</v>
+      </c>
+      <c r="E312" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F312" s="25">
+        <v>200246</v>
+      </c>
+      <c r="G312" s="25">
+        <v>11903157</v>
+      </c>
+      <c r="H312" s="26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I312" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" s="24">
+        <f>A311+1</f>
+        <v>46050</v>
+      </c>
+      <c r="B313" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C313" s="25">
+        <v>10716880</v>
+      </c>
+      <c r="D313" s="25">
+        <v>966493</v>
+      </c>
+      <c r="E313" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F313" s="25">
+        <v>200246</v>
+      </c>
+      <c r="G313" s="25">
+        <v>11903157</v>
+      </c>
+      <c r="H313" s="26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I313" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" s="24">
+        <f>A313+1</f>
+        <v>46051</v>
+      </c>
+      <c r="B314" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314" s="25">
+        <v>10716880</v>
+      </c>
+      <c r="D314" s="25">
+        <v>966493</v>
+      </c>
+      <c r="E314" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F314" s="25">
+        <v>200246</v>
+      </c>
+      <c r="G314" s="25">
+        <v>11903157</v>
+      </c>
+      <c r="H314" s="26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I314" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" s="24">
+        <f>A313+1</f>
+        <v>46051</v>
+      </c>
+      <c r="B315" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C315" s="25">
+        <v>10716880</v>
+      </c>
+      <c r="D315" s="25">
+        <v>966493</v>
+      </c>
+      <c r="E315" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F315" s="25">
+        <v>200246</v>
+      </c>
+      <c r="G315" s="25">
+        <v>11903157</v>
+      </c>
+      <c r="H315" s="26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I315" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" s="24">
+        <f>A315+1</f>
+        <v>46052</v>
+      </c>
+      <c r="B316" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" s="25">
+        <v>10716880</v>
+      </c>
+      <c r="D316" s="25">
+        <v>966493</v>
+      </c>
+      <c r="E316" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F316" s="25">
+        <v>200246</v>
+      </c>
+      <c r="G316" s="25">
+        <v>11903157</v>
+      </c>
+      <c r="H316" s="26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I316" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" s="24">
+        <f>A315+1</f>
+        <v>46052</v>
+      </c>
+      <c r="B317" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C317" s="25">
+        <v>10716880</v>
+      </c>
+      <c r="D317" s="25">
+        <v>966493</v>
+      </c>
+      <c r="E317" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F317" s="25">
+        <v>200246</v>
+      </c>
+      <c r="G317" s="25">
+        <v>11903157</v>
+      </c>
+      <c r="H317" s="26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I317" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" s="24">
+        <f>A317+1</f>
+        <v>46053</v>
+      </c>
+      <c r="B318" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="25">
+        <v>10716880</v>
+      </c>
+      <c r="D318" s="25">
+        <v>966493</v>
+      </c>
+      <c r="E318" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F318" s="25">
+        <v>200246</v>
+      </c>
+      <c r="G318" s="25">
+        <v>11903157</v>
+      </c>
+      <c r="H318" s="26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I318" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" s="24">
+        <f>A317+1</f>
+        <v>46053</v>
+      </c>
+      <c r="B319" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C319" s="25">
+        <v>10716880</v>
+      </c>
+      <c r="D319" s="25">
+        <v>966493</v>
+      </c>
+      <c r="E319" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F319" s="25">
+        <v>200246</v>
+      </c>
+      <c r="G319" s="25">
+        <v>11903157</v>
+      </c>
+      <c r="H319" s="26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I319" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" s="24">
+        <f>A319+1</f>
+        <v>46054</v>
+      </c>
+      <c r="B320" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" s="25">
+        <v>11006211</v>
+      </c>
+      <c r="D320" s="25">
+        <v>994463</v>
+      </c>
+      <c r="E320" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F320" s="25">
+        <v>205169</v>
+      </c>
+      <c r="G320" s="25">
+        <v>12225381</v>
+      </c>
+      <c r="H320" s="26">
+        <v>5.25</v>
+      </c>
+      <c r="I320" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" s="24">
+        <f>A319+1</f>
+        <v>46054</v>
+      </c>
+      <c r="B321" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C321" s="25">
+        <v>11006211</v>
+      </c>
+      <c r="D321" s="25">
+        <v>994463</v>
+      </c>
+      <c r="E321" s="25">
+        <v>19538</v>
+      </c>
+      <c r="F321" s="25">
+        <v>205169</v>
+      </c>
+      <c r="G321" s="25">
+        <v>12225381</v>
+      </c>
+      <c r="H321" s="26">
+        <v>5.25</v>
+      </c>
+      <c r="I321" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" s="24">
+        <f>A321+1</f>
+        <v>46055</v>
+      </c>
+      <c r="B322" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322" s="25">
+        <v>17929425</v>
+      </c>
+      <c r="D322" s="25">
+        <v>1237683</v>
+      </c>
+      <c r="E322" s="25">
+        <v>85135</v>
+      </c>
+      <c r="F322" s="25">
+        <v>308053</v>
+      </c>
+      <c r="G322" s="25">
+        <v>19560296</v>
+      </c>
+      <c r="H322" s="26">
+        <v>7.99</v>
+      </c>
+      <c r="I322" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" s="24">
+        <f>A321+1</f>
+        <v>46055</v>
+      </c>
+      <c r="B323" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C323" s="25">
+        <v>17929425</v>
+      </c>
+      <c r="D323" s="25">
+        <v>1237683</v>
+      </c>
+      <c r="E323" s="25">
+        <v>85135</v>
+      </c>
+      <c r="F323" s="25">
+        <v>308053</v>
+      </c>
+      <c r="G323" s="25">
+        <v>19560296</v>
+      </c>
+      <c r="H323" s="26">
+        <v>7.99</v>
+      </c>
+      <c r="I323" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" s="24">
+        <f>A323+1</f>
+        <v>46056</v>
+      </c>
+      <c r="B324" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="25">
+        <v>18909313</v>
+      </c>
+      <c r="D324" s="25">
+        <v>1312802</v>
+      </c>
+      <c r="E324" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F324" s="25">
+        <v>327310</v>
+      </c>
+      <c r="G324" s="25">
+        <v>20660418</v>
+      </c>
+      <c r="H324" s="26">
+        <v>8.48</v>
+      </c>
+      <c r="I324" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" s="24">
+        <f>A323+1</f>
+        <v>46056</v>
+      </c>
+      <c r="B325" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C325" s="25">
+        <v>18909313</v>
+      </c>
+      <c r="D325" s="25">
+        <v>1312802</v>
+      </c>
+      <c r="E325" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F325" s="25">
+        <v>327310</v>
+      </c>
+      <c r="G325" s="25">
+        <v>20660418</v>
+      </c>
+      <c r="H325" s="26">
+        <v>8.48</v>
+      </c>
+      <c r="I325" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" s="24">
+        <f>A325+1</f>
+        <v>46057</v>
+      </c>
+      <c r="B326" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" s="25">
+        <v>19915105</v>
+      </c>
+      <c r="D326" s="25">
+        <v>1397547</v>
+      </c>
+      <c r="E326" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F326" s="25">
+        <v>345902</v>
+      </c>
+      <c r="G326" s="25">
+        <v>21769547</v>
+      </c>
+      <c r="H326" s="26">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I326" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" s="24">
+        <f>A325+1</f>
+        <v>46057</v>
+      </c>
+      <c r="B327" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C327" s="25">
+        <v>19915105</v>
+      </c>
+      <c r="D327" s="25">
+        <v>1397547</v>
+      </c>
+      <c r="E327" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F327" s="25">
+        <v>345902</v>
+      </c>
+      <c r="G327" s="25">
+        <v>21769547</v>
+      </c>
+      <c r="H327" s="26">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I327" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" s="24">
+        <f>A327+1</f>
+        <v>46058</v>
+      </c>
+      <c r="B328" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C328" s="25">
+        <v>19915105</v>
+      </c>
+      <c r="D328" s="25">
+        <v>1397547</v>
+      </c>
+      <c r="E328" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F328" s="25">
+        <v>345902</v>
+      </c>
+      <c r="G328" s="25">
+        <v>21769547</v>
+      </c>
+      <c r="H328" s="26">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I328" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" s="24">
+        <f>A327+1</f>
+        <v>46058</v>
+      </c>
+      <c r="B329" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C329" s="25">
+        <v>19915105</v>
+      </c>
+      <c r="D329" s="25">
+        <v>1397547</v>
+      </c>
+      <c r="E329" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F329" s="25">
+        <v>345902</v>
+      </c>
+      <c r="G329" s="25">
+        <v>21769547</v>
+      </c>
+      <c r="H329" s="26">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I329" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" s="24">
+        <f>A329+1</f>
+        <v>46059</v>
+      </c>
+      <c r="B330" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C330" s="25">
+        <v>20650337</v>
+      </c>
+      <c r="D330" s="25">
+        <v>1446661</v>
+      </c>
+      <c r="E330" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F330" s="25">
+        <v>359872</v>
+      </c>
+      <c r="G330" s="25">
+        <v>22567863</v>
+      </c>
+      <c r="H330" s="26">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I330" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" s="24">
+        <f>A329+1</f>
+        <v>46059</v>
+      </c>
+      <c r="B331" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C331" s="25">
+        <v>20650337</v>
+      </c>
+      <c r="D331" s="25">
+        <v>1446661</v>
+      </c>
+      <c r="E331" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F331" s="25">
+        <v>359872</v>
+      </c>
+      <c r="G331" s="25">
+        <v>22567863</v>
+      </c>
+      <c r="H331" s="26">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I331" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" s="24">
+        <f>A331+1</f>
+        <v>46060</v>
+      </c>
+      <c r="B332" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C332" s="25">
+        <v>20650337</v>
+      </c>
+      <c r="D332" s="25">
+        <v>1446661</v>
+      </c>
+      <c r="E332" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F332" s="25">
+        <v>359872</v>
+      </c>
+      <c r="G332" s="25">
+        <v>22567863</v>
+      </c>
+      <c r="H332" s="26">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I332" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="24">
+        <f>A331+1</f>
+        <v>46060</v>
+      </c>
+      <c r="B333" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C333" s="25">
+        <v>20650337</v>
+      </c>
+      <c r="D333" s="25">
+        <v>1446661</v>
+      </c>
+      <c r="E333" s="25">
+        <v>110993</v>
+      </c>
+      <c r="F333" s="25">
+        <v>359872</v>
+      </c>
+      <c r="G333" s="25">
+        <v>22567863</v>
+      </c>
+      <c r="H333" s="26">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I333" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="24">
+        <f>A333+1</f>
+        <v>46061</v>
+      </c>
+      <c r="B334" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334" s="25">
+        <v>22207569</v>
+      </c>
+      <c r="D334" s="25">
+        <v>1554346</v>
+      </c>
+      <c r="E334" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F334" s="25">
+        <v>391382</v>
+      </c>
+      <c r="G334" s="25">
+        <v>24308271</v>
+      </c>
+      <c r="H334" s="26">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="I334" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="24">
+        <f>A333+1</f>
+        <v>46061</v>
+      </c>
+      <c r="B335" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C335" s="25">
+        <v>22207569</v>
+      </c>
+      <c r="D335" s="25">
+        <v>1554346</v>
+      </c>
+      <c r="E335" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F335" s="25">
+        <v>391382</v>
+      </c>
+      <c r="G335" s="25">
+        <v>24308271</v>
+      </c>
+      <c r="H335" s="26">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="I335" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="24">
+        <f>A335+1</f>
+        <v>46062</v>
+      </c>
+      <c r="B336" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336" s="25">
+        <v>22207569</v>
+      </c>
+      <c r="D336" s="25">
+        <v>1554346</v>
+      </c>
+      <c r="E336" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F336" s="25">
+        <v>391382</v>
+      </c>
+      <c r="G336" s="25">
+        <v>24308271</v>
+      </c>
+      <c r="H336" s="26">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="I336" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="24">
+        <f>A335+1</f>
+        <v>46062</v>
+      </c>
+      <c r="B337" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C337" s="25">
+        <v>22207569</v>
+      </c>
+      <c r="D337" s="25">
+        <v>1554346</v>
+      </c>
+      <c r="E337" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F337" s="25">
+        <v>391382</v>
+      </c>
+      <c r="G337" s="25">
+        <v>24308271</v>
+      </c>
+      <c r="H337" s="26">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="I337" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="24">
+        <f>A337+1</f>
+        <v>46063</v>
+      </c>
+      <c r="B338" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C338" s="25">
+        <v>23075561</v>
+      </c>
+      <c r="D338" s="25">
+        <v>1620590</v>
+      </c>
+      <c r="E338" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F338" s="25">
+        <v>403289</v>
+      </c>
+      <c r="G338" s="25">
+        <v>25254414</v>
+      </c>
+      <c r="H338" s="26">
+        <v>10.41</v>
+      </c>
+      <c r="I338" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" s="24">
+        <f>A337+1</f>
+        <v>46063</v>
+      </c>
+      <c r="B339" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C339" s="25">
+        <v>23075561</v>
+      </c>
+      <c r="D339" s="25">
+        <v>1620590</v>
+      </c>
+      <c r="E339" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F339" s="25">
+        <v>403289</v>
+      </c>
+      <c r="G339" s="25">
+        <v>25254414</v>
+      </c>
+      <c r="H339" s="26">
+        <v>10.41</v>
+      </c>
+      <c r="I339" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" s="24">
+        <f>A339+1</f>
+        <v>46064</v>
+      </c>
+      <c r="B340" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C340" s="25">
+        <v>23278442</v>
+      </c>
+      <c r="D340" s="25">
+        <v>1638483</v>
+      </c>
+      <c r="E340" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F340" s="25">
+        <v>406857</v>
+      </c>
+      <c r="G340" s="25">
+        <v>25478756</v>
+      </c>
+      <c r="H340" s="26">
+        <v>10.51</v>
+      </c>
+      <c r="I340" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" s="24">
+        <f>A339+1</f>
+        <v>46064</v>
+      </c>
+      <c r="B341" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C341" s="25">
+        <v>23278442</v>
+      </c>
+      <c r="D341" s="25">
+        <v>1638483</v>
+      </c>
+      <c r="E341" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F341" s="25">
+        <v>406857</v>
+      </c>
+      <c r="G341" s="25">
+        <v>25478756</v>
+      </c>
+      <c r="H341" s="26">
+        <v>10.51</v>
+      </c>
+      <c r="I341" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="24">
+        <f>A341+1</f>
+        <v>46065</v>
+      </c>
+      <c r="B342" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342" s="25">
+        <v>23506966</v>
+      </c>
+      <c r="D342" s="25">
+        <v>1662220</v>
+      </c>
+      <c r="E342" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F342" s="25">
+        <v>413122</v>
+      </c>
+      <c r="G342" s="25">
+        <v>25737282</v>
+      </c>
+      <c r="H342" s="26">
+        <v>10.63</v>
+      </c>
+      <c r="I342" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" s="24">
+        <f>A341+1</f>
+        <v>46065</v>
+      </c>
+      <c r="B343" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C343" s="25">
+        <v>23506966</v>
+      </c>
+      <c r="D343" s="25">
+        <v>1662220</v>
+      </c>
+      <c r="E343" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F343" s="25">
+        <v>413122</v>
+      </c>
+      <c r="G343" s="25">
+        <v>25737282</v>
+      </c>
+      <c r="H343" s="26">
+        <v>10.63</v>
+      </c>
+      <c r="I343" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="24">
+        <f>A343+1</f>
+        <v>46066</v>
+      </c>
+      <c r="B344" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C344" s="25">
+        <v>23506966</v>
+      </c>
+      <c r="D344" s="25">
+        <v>1662220</v>
+      </c>
+      <c r="E344" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F344" s="25">
+        <v>413122</v>
+      </c>
+      <c r="G344" s="25">
+        <v>25737282</v>
+      </c>
+      <c r="H344" s="26">
+        <v>10.63</v>
+      </c>
+      <c r="I344" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" s="24">
+        <f>A343+1</f>
+        <v>46066</v>
+      </c>
+      <c r="B345" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C345" s="25">
+        <v>23506966</v>
+      </c>
+      <c r="D345" s="25">
+        <v>1662220</v>
+      </c>
+      <c r="E345" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F345" s="25">
+        <v>413122</v>
+      </c>
+      <c r="G345" s="25">
+        <v>25737282</v>
+      </c>
+      <c r="H345" s="26">
+        <v>10.63</v>
+      </c>
+      <c r="I345" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" s="24">
+        <f>A345+1</f>
+        <v>46067</v>
+      </c>
+      <c r="B346" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C346" s="25">
+        <v>25237014</v>
+      </c>
+      <c r="D346" s="25">
+        <v>1765313</v>
+      </c>
+      <c r="E346" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F346" s="25">
+        <v>450088</v>
+      </c>
+      <c r="G346" s="25">
+        <v>27607389</v>
+      </c>
+      <c r="H346" s="26">
+        <v>11.43</v>
+      </c>
+      <c r="I346" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" s="24">
+        <f>A345+1</f>
+        <v>46067</v>
+      </c>
+      <c r="B347" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C347" s="25">
+        <v>25237014</v>
+      </c>
+      <c r="D347" s="25">
+        <v>1765313</v>
+      </c>
+      <c r="E347" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F347" s="25">
+        <v>450088</v>
+      </c>
+      <c r="G347" s="25">
+        <v>27607389</v>
+      </c>
+      <c r="H347" s="26">
+        <v>11.43</v>
+      </c>
+      <c r="I347" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" s="24">
+        <f>A347+1</f>
+        <v>46068</v>
+      </c>
+      <c r="B348" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C348" s="25">
+        <v>25237014</v>
+      </c>
+      <c r="D348" s="25">
+        <v>1765313</v>
+      </c>
+      <c r="E348" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F348" s="25">
+        <v>450888</v>
+      </c>
+      <c r="G348" s="25">
+        <v>27607389</v>
+      </c>
+      <c r="H348" s="26">
+        <v>11.43</v>
+      </c>
+      <c r="I348" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" s="24">
+        <f>A347+1</f>
+        <v>46068</v>
+      </c>
+      <c r="B349" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C349" s="25">
+        <v>25237014</v>
+      </c>
+      <c r="D349" s="25">
+        <v>1765313</v>
+      </c>
+      <c r="E349" s="25">
+        <v>154974</v>
+      </c>
+      <c r="F349" s="25">
+        <v>450888</v>
+      </c>
+      <c r="G349" s="25">
+        <v>27607389</v>
+      </c>
+      <c r="H349" s="26">
+        <v>11.43</v>
+      </c>
+      <c r="I349" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" s="24">
+        <f>A349+1</f>
+        <v>46069</v>
+      </c>
+      <c r="B350" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C350" s="25">
+        <v>43227922</v>
+      </c>
+      <c r="D350" s="25">
+        <v>2322709</v>
+      </c>
+      <c r="E350" s="25">
+        <v>183830</v>
+      </c>
+      <c r="F350" s="25">
+        <v>624236</v>
+      </c>
+      <c r="G350" s="25">
+        <v>46358697</v>
+      </c>
+      <c r="H350" s="26">
+        <v>17.7</v>
+      </c>
+      <c r="I350" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" s="24">
+        <f>A349+1</f>
+        <v>46069</v>
+      </c>
+      <c r="B351" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C351" s="25">
+        <v>43227922</v>
+      </c>
+      <c r="D351" s="25">
+        <v>2322709</v>
+      </c>
+      <c r="E351" s="25">
+        <v>183830</v>
+      </c>
+      <c r="F351" s="25">
+        <v>624236</v>
+      </c>
+      <c r="G351" s="25">
+        <v>46358697</v>
+      </c>
+      <c r="H351" s="26">
+        <v>17.7</v>
+      </c>
+      <c r="I351" s="27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14610,7 +20370,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
